--- a/app/resource/xlsx/major_proposal_template_2_stage3.xlsx
+++ b/app/resource/xlsx/major_proposal_template_2_stage3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B70B9-98A8-4E2B-9F4D-381CAF116EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B64BD-E086-441F-A646-00BA42158BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -988,9 +988,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1001,6 +998,18 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1024,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,22 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1247,6 +1240,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1764,7 +1765,7 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1891,7 +1892,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,9 +1899,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1914,14 +1911,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2024,16 +2014,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2064,11 +2048,44 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2081,17 +2098,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,9 +2110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2114,7 +2122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3758,13 +3766,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:X361"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A274" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272:D273"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A272" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="12" customWidth="1"/>
     <col min="2" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -3778,95 +3786,117 @@
     <col min="18" max="18" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
+    <row r="27" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="31" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A37" s="121" t="s">
+      <c r="A37" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="137" t="s">
+      <c r="F37" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F38" s="136" t="s">
+      <c r="F38" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="136" t="s">
+      <c r="F39" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F40" s="136" t="s">
+      <c r="F40" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F41" s="136" t="s">
+      <c r="F41" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="115" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
-      <c r="B43" s="135"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="135"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
       <c r="H43" s="33" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129" t="e">
+      <c r="B45" s="126"/>
+      <c r="C45" s="126" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
+      <c r="F45" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
+      <c r="F46" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
       <c r="N46" s="45"/>
@@ -3876,6 +3906,9 @@
       <c r="C47" s="35"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39"/>
+      <c r="F47" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
       <c r="K47" s="39"/>
@@ -3909,7 +3942,7 @@
       <c r="O49" s="45"/>
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="13"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
@@ -3923,14 +3956,14 @@
       <c r="O50" s="39"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
       <c r="J51" s="44"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3954,24 +3987,24 @@
       <c r="O52" s="36"/>
     </row>
     <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="133"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="133"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -3979,89 +4012,89 @@
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
-      <c r="P54" s="141"/>
-      <c r="Q54" s="141"/>
-      <c r="R54" s="141"/>
-      <c r="S54" s="141"/>
-      <c r="T54" s="141"/>
-      <c r="U54" s="141"/>
-      <c r="V54" s="141"/>
-      <c r="W54" s="141"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="144"/>
+      <c r="S54" s="144"/>
+      <c r="T54" s="144"/>
+      <c r="U54" s="144"/>
+      <c r="V54" s="144"/>
+      <c r="W54" s="144"/>
     </row>
     <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="L56" s="142"/>
+      <c r="M56" s="142"/>
+      <c r="N56" s="142"/>
+      <c r="O56" s="142"/>
+      <c r="P56" s="142"/>
+      <c r="Q56" s="142"/>
+      <c r="R56" s="142"/>
+      <c r="S56" s="142"/>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="L57" s="139"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="139"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="L57" s="142"/>
+      <c r="M57" s="142"/>
+      <c r="N57" s="142"/>
+      <c r="O57" s="142"/>
+      <c r="P57" s="142"/>
+      <c r="Q57" s="142"/>
+      <c r="R57" s="142"/>
+      <c r="S57" s="142"/>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="133"/>
-      <c r="B58" s="133"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="142"/>
+      <c r="N58" s="142"/>
+      <c r="O58" s="142"/>
+      <c r="P58" s="142"/>
+      <c r="Q58" s="142"/>
+      <c r="R58" s="142"/>
+      <c r="S58" s="142"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="133"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="L59" s="139"/>
-      <c r="M59" s="139"/>
-      <c r="N59" s="139"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="139"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="142"/>
+      <c r="N59" s="142"/>
+      <c r="O59" s="142"/>
+      <c r="P59" s="142"/>
+      <c r="Q59" s="142"/>
+      <c r="R59" s="142"/>
+      <c r="S59" s="142"/>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4078,28 +4111,28 @@
       <c r="O60" s="42"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="136" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="133"/>
-      <c r="C61" s="133"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="136"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="136"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="133"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="136"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="136"/>
       <c r="J62" s="35"/>
       <c r="L62" s="35"/>
       <c r="Q62" s="35"/>
@@ -4107,69 +4140,69 @@
       <c r="S62" s="25"/>
     </row>
     <row r="63" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="str">
+      <c r="A63" s="102" t="str">
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="B63" s="136" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="133"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="133"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
       <c r="T63" s="47"/>
       <c r="U63" s="47"/>
       <c r="V63" s="48"/>
     </row>
     <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="str">
+      <c r="A64" s="102" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="136" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="133"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
     </row>
     <row r="65" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="str">
+      <c r="A65" s="102" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="C65" s="133"/>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="133"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
       <c r="J65" s="36"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="str">
+      <c r="A66" s="102" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="133" t="s">
+      <c r="B66" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="P66" s="43"/>
@@ -4180,7 +4213,7 @@
       <c r="U66" s="43"/>
     </row>
     <row r="67" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="77"/>
       <c r="J67" s="35"/>
       <c r="P67" s="43"/>
       <c r="Q67" s="43"/>
@@ -4190,32 +4223,32 @@
       <c r="U67" s="43"/>
     </row>
     <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="B68" s="133"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="133"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
       <c r="V68" s="43"/>
     </row>
     <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="133"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
+      <c r="A69" s="136"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
       <c r="L69" s="35"/>
       <c r="V69" s="43"/>
     </row>
     <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="77"/>
       <c r="K70" s="33"/>
       <c r="L70" s="35"/>
     </row>
@@ -4232,16 +4265,16 @@
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="77"/>
       <c r="J72" s="35"/>
       <c r="L72" s="35"/>
     </row>
     <row r="73" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="77"/>
       <c r="L73" s="35"/>
     </row>
     <row r="74" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -4249,16 +4282,16 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
     </row>
     <row r="75" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -4268,7 +4301,7 @@
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
       <c r="D76" s="36"/>
@@ -4291,7 +4324,7 @@
       <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4312,7 +4345,7 @@
       <c r="O80" s="36"/>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="63" t="s">
+      <c r="A81" s="117" t="s">
         <v>67</v>
       </c>
       <c r="B81" s="36"/>
@@ -4330,60 +4363,60 @@
       <c r="O81" s="36"/>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="81" t="s">
+      <c r="B85" s="76" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="133"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="133"/>
-      <c r="H86" s="133"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="136"/>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="133"/>
-      <c r="C87" s="133"/>
-      <c r="D87" s="133"/>
-      <c r="E87" s="133"/>
-      <c r="F87" s="133"/>
-      <c r="G87" s="133"/>
-      <c r="H87" s="133"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="136"/>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="55"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -4399,12 +4432,12 @@
       <c r="B90" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="55"/>
       <c r="K90" s="36"/>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -4414,16 +4447,16 @@
       <c r="Q90"/>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="133" t="s">
+      <c r="A91" s="77"/>
+      <c r="B91" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="C91" s="133"/>
-      <c r="D91" s="133"/>
-      <c r="E91" s="133"/>
-      <c r="F91" s="133"/>
-      <c r="G91" s="133"/>
-      <c r="H91" s="133"/>
+      <c r="C91" s="136"/>
+      <c r="D91" s="136"/>
+      <c r="E91" s="136"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="136"/>
+      <c r="H91" s="136"/>
       <c r="K91" s="36"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -4431,27 +4464,27 @@
       <c r="O91" s="36"/>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="133"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="133"/>
-      <c r="E92" s="133"/>
-      <c r="F92" s="133"/>
-      <c r="G92" s="133"/>
-      <c r="H92" s="133"/>
+      <c r="A92" s="77"/>
+      <c r="B92" s="136"/>
+      <c r="C92" s="136"/>
+      <c r="D92" s="136"/>
+      <c r="E92" s="136"/>
+      <c r="F92" s="136"/>
+      <c r="G92" s="136"/>
+      <c r="H92" s="136"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
-      <c r="D93" s="133"/>
-      <c r="E93" s="133"/>
-      <c r="F93" s="133"/>
-      <c r="G93" s="133"/>
-      <c r="H93" s="133"/>
+      <c r="A93" s="77"/>
+      <c r="B93" s="136"/>
+      <c r="C93" s="136"/>
+      <c r="D93" s="136"/>
+      <c r="E93" s="136"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="136"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="77"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -4470,7 +4503,7 @@
       <c r="Q95" s="1"/>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
+      <c r="A96" s="77"/>
       <c r="B96" t="s">
         <v>234</v>
       </c>
@@ -4478,378 +4511,378 @@
       <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="108" t="str">
+      <c r="A97" s="118" t="str">
         <f t="shared" ref="A97:A98" si="1">IF(B97&lt;&gt;"","•","")</f>
         <v/>
       </c>
-      <c r="B97" s="106"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="107"/>
-      <c r="G97" s="107"/>
-      <c r="H97" s="107"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="83"/>
+      <c r="L97" s="78"/>
       <c r="O97" s="42"/>
     </row>
     <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="108" t="str">
+      <c r="A98" s="118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B98" s="106"/>
-      <c r="C98" s="107"/>
-      <c r="D98" s="107"/>
-      <c r="E98" s="107"/>
-      <c r="F98" s="107"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="83"/>
+      <c r="L98" s="78"/>
       <c r="O98" s="42"/>
     </row>
     <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="108"/>
-      <c r="B99" s="106"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="107"/>
-      <c r="E99" s="107"/>
-      <c r="F99" s="107"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="83"/>
+      <c r="L99" s="78"/>
       <c r="O99" s="42"/>
     </row>
     <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
+      <c r="A100" s="118"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="83"/>
+      <c r="L100" s="78"/>
       <c r="O100" s="42"/>
     </row>
     <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="107"/>
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
+      <c r="A101" s="118"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="83"/>
+      <c r="L101" s="78"/>
       <c r="O101" s="42"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="107"/>
-      <c r="D102" s="107"/>
-      <c r="E102" s="107"/>
-      <c r="F102" s="107"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="83"/>
+      <c r="L102" s="78"/>
       <c r="O102" s="42"/>
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="107"/>
-      <c r="D103" s="107"/>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
+      <c r="A103" s="118"/>
+      <c r="B103" s="100"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="83"/>
+      <c r="L103" s="78"/>
       <c r="O103" s="42"/>
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
+      <c r="A104" s="118"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="83"/>
+      <c r="L104" s="78"/>
       <c r="O104" s="42"/>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="107"/>
-      <c r="D105" s="107"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="107"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="83"/>
+      <c r="L105" s="78"/>
       <c r="O105" s="42"/>
     </row>
     <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="108"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="107"/>
+      <c r="A106" s="118"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="83"/>
+      <c r="L106" s="78"/>
       <c r="O106" s="42"/>
     </row>
     <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="108"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="107"/>
-      <c r="D107" s="107"/>
-      <c r="E107" s="107"/>
-      <c r="F107" s="107"/>
+      <c r="A107" s="118"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="83"/>
+      <c r="L107" s="78"/>
       <c r="O107" s="42"/>
     </row>
     <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="107"/>
-      <c r="D108" s="107"/>
-      <c r="E108" s="107"/>
-      <c r="F108" s="107"/>
+      <c r="A108" s="118"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="83"/>
+      <c r="L108" s="78"/>
       <c r="O108" s="42"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
-      <c r="B109" s="106"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="107"/>
-      <c r="F109" s="107"/>
+      <c r="A109" s="118"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="83"/>
+      <c r="L109" s="78"/>
       <c r="O109" s="42"/>
     </row>
     <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="107"/>
-      <c r="D110" s="107"/>
-      <c r="E110" s="107"/>
-      <c r="F110" s="107"/>
+      <c r="A110" s="118"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="83"/>
+      <c r="L110" s="78"/>
       <c r="O110" s="42"/>
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="108"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="107"/>
+      <c r="A111" s="118"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="83"/>
+      <c r="L111" s="78"/>
       <c r="O111" s="42"/>
     </row>
     <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="107"/>
-      <c r="D112" s="107"/>
-      <c r="E112" s="107"/>
-      <c r="F112" s="107"/>
+      <c r="A112" s="118"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="83"/>
+      <c r="L112" s="78"/>
       <c r="O112" s="42"/>
     </row>
     <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="107"/>
-      <c r="D113" s="107"/>
-      <c r="E113" s="107"/>
-      <c r="F113" s="107"/>
+      <c r="A113" s="118"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="83"/>
+      <c r="L113" s="78"/>
       <c r="O113" s="42"/>
     </row>
     <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="108"/>
-      <c r="B114" s="106"/>
+      <c r="A114" s="118"/>
+      <c r="B114" s="100"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="83"/>
+      <c r="L114" s="78"/>
       <c r="O114" s="42"/>
     </row>
     <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="108"/>
-      <c r="B115" s="106"/>
+      <c r="A115" s="118"/>
+      <c r="B115" s="100"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="83"/>
+      <c r="L115" s="78"/>
       <c r="O115" s="42"/>
     </row>
     <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="108"/>
-      <c r="B116" s="106"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="100"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="83"/>
+      <c r="L116" s="78"/>
       <c r="O116" s="42"/>
     </row>
     <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="108"/>
-      <c r="B117" s="106"/>
+      <c r="A117" s="118"/>
+      <c r="B117" s="100"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="83"/>
+      <c r="L117" s="78"/>
       <c r="O117" s="42"/>
     </row>
     <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="108"/>
-      <c r="B118" s="106"/>
+      <c r="A118" s="118"/>
+      <c r="B118" s="100"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="83"/>
+      <c r="L118" s="78"/>
       <c r="O118" s="42"/>
     </row>
     <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="108"/>
-      <c r="B119" s="106"/>
+      <c r="A119" s="118"/>
+      <c r="B119" s="100"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="83"/>
+      <c r="L119" s="78"/>
       <c r="O119" s="42"/>
     </row>
     <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="108"/>
-      <c r="B120" s="106"/>
+      <c r="A120" s="118"/>
+      <c r="B120" s="100"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="83"/>
+      <c r="L120" s="78"/>
       <c r="O120" s="42"/>
     </row>
     <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="108"/>
-      <c r="B121" s="106"/>
+      <c r="A121" s="118"/>
+      <c r="B121" s="100"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="83"/>
+      <c r="L121" s="78"/>
       <c r="O121" s="42"/>
     </row>
     <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="108"/>
-      <c r="B122" s="106"/>
-      <c r="L122" s="84"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="100"/>
+      <c r="L122" s="79"/>
       <c r="O122" s="42"/>
     </row>
     <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="108"/>
-      <c r="B123" s="106"/>
-      <c r="L123" s="84"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="100"/>
+      <c r="L123" s="79"/>
       <c r="N123" s="42"/>
       <c r="O123" s="42"/>
     </row>
     <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="108"/>
-      <c r="B124" s="106"/>
-      <c r="L124" s="84"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="100"/>
+      <c r="L124" s="79"/>
       <c r="N124" s="42"/>
       <c r="O124" s="42"/>
     </row>
     <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="108"/>
-      <c r="B125" s="106"/>
-      <c r="L125" s="84"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="100"/>
+      <c r="L125" s="79"/>
       <c r="N125" s="42"/>
       <c r="O125" s="42"/>
     </row>
     <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="108"/>
-      <c r="B126" s="106"/>
-      <c r="L126" s="84"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="100"/>
+      <c r="L126" s="79"/>
       <c r="N126" s="42"/>
       <c r="O126" s="42"/>
     </row>
     <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="108"/>
-      <c r="B127" s="106"/>
-      <c r="L127" s="84"/>
+      <c r="A127" s="118"/>
+      <c r="B127" s="100"/>
+      <c r="L127" s="79"/>
       <c r="N127" s="42"/>
       <c r="O127" s="42"/>
     </row>
     <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="108"/>
-      <c r="B128" s="106"/>
-      <c r="L128" s="84"/>
+      <c r="A128" s="118"/>
+      <c r="B128" s="100"/>
+      <c r="L128" s="79"/>
       <c r="N128" s="42"/>
       <c r="O128" s="42"/>
     </row>
     <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="108"/>
-      <c r="B129" s="106"/>
-      <c r="L129" s="84"/>
+      <c r="A129" s="118"/>
+      <c r="B129" s="100"/>
+      <c r="L129" s="79"/>
       <c r="N129" s="42"/>
       <c r="O129" s="42"/>
     </row>
     <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="108"/>
-      <c r="B130" s="106"/>
-      <c r="C130" s="107"/>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="107"/>
-      <c r="G130" s="107"/>
-      <c r="H130" s="107"/>
-      <c r="L130" s="84"/>
+      <c r="A130" s="118"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="L130" s="79"/>
       <c r="N130" s="42"/>
       <c r="O130" s="42"/>
     </row>
     <row r="131" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="109"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="109"/>
+      <c r="A131" s="102"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="102"/>
       <c r="N131" s="42"/>
       <c r="O131" s="42"/>
     </row>
     <row r="132" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="109"/>
-      <c r="C132" s="110"/>
+      <c r="A132" s="102"/>
+      <c r="C132" s="103"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
-      <c r="H132" s="111"/>
-      <c r="K132" s="58"/>
-      <c r="M132" s="58"/>
+      <c r="H132" s="104"/>
+      <c r="K132" s="56"/>
+      <c r="M132" s="56"/>
       <c r="N132" s="42"/>
       <c r="O132" s="42"/>
     </row>
     <row r="133" spans="1:19" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="109"/>
-      <c r="C133" s="110"/>
+      <c r="A133" s="102"/>
+      <c r="C133" s="103"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
-      <c r="H133" s="111"/>
-      <c r="K133" s="99" t="s">
+      <c r="H133" s="104"/>
+      <c r="K133" s="94" t="s">
         <v>277</v>
       </c>
-      <c r="M133" s="58"/>
+      <c r="M133" s="56"/>
       <c r="N133" s="42"/>
       <c r="O133" s="42"/>
     </row>
     <row r="134" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
+      <c r="A134" s="102"/>
       <c r="K134" s="31" t="str">
         <f t="shared" ref="K134:K191" si="2">IF(L134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="L134" s="131" t="s">
+      <c r="L134" s="135" t="s">
         <v>248</v>
       </c>
-      <c r="M134" s="131"/>
-      <c r="N134" s="131"/>
-      <c r="O134" s="131"/>
-      <c r="P134" s="131"/>
-      <c r="Q134" s="131"/>
-      <c r="R134" s="131"/>
-      <c r="S134" s="131"/>
+      <c r="M134" s="135"/>
+      <c r="N134" s="135"/>
+      <c r="O134" s="135"/>
+      <c r="P134" s="135"/>
+      <c r="Q134" s="135"/>
+      <c r="R134" s="135"/>
+      <c r="S134" s="135"/>
     </row>
     <row r="135" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
+      <c r="A135" s="102"/>
       <c r="K135" s="31"/>
       <c r="L135" s="41"/>
       <c r="M135" s="41"/>
@@ -4861,7 +4894,7 @@
       <c r="S135" s="41"/>
     </row>
     <row r="136" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
+      <c r="A136" s="102"/>
       <c r="K136" s="31"/>
       <c r="L136" s="41"/>
       <c r="M136" s="41"/>
@@ -4873,7 +4906,7 @@
       <c r="S136" s="41"/>
     </row>
     <row r="137" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
+      <c r="A137" s="102"/>
       <c r="K137" s="31"/>
       <c r="L137" s="41"/>
       <c r="M137" s="41"/>
@@ -4885,7 +4918,7 @@
       <c r="S137" s="41"/>
     </row>
     <row r="138" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
+      <c r="A138" s="102"/>
       <c r="K138" s="31"/>
       <c r="L138" s="41"/>
       <c r="M138" s="41"/>
@@ -4897,7 +4930,7 @@
       <c r="S138" s="41"/>
     </row>
     <row r="139" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
+      <c r="A139" s="102"/>
       <c r="K139" s="31"/>
       <c r="L139" s="41"/>
       <c r="M139" s="41"/>
@@ -4909,7 +4942,7 @@
       <c r="S139" s="41"/>
     </row>
     <row r="140" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
+      <c r="A140" s="102"/>
       <c r="K140" s="31"/>
       <c r="L140" s="41"/>
       <c r="M140" s="41"/>
@@ -4921,7 +4954,7 @@
       <c r="S140" s="41"/>
     </row>
     <row r="141" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
+      <c r="A141" s="102"/>
       <c r="K141" s="31"/>
       <c r="L141" s="41"/>
       <c r="M141" s="41"/>
@@ -4933,7 +4966,7 @@
       <c r="S141" s="41"/>
     </row>
     <row r="142" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
+      <c r="A142" s="102"/>
       <c r="K142" s="31"/>
       <c r="L142" s="41"/>
       <c r="M142" s="41"/>
@@ -4945,7 +4978,7 @@
       <c r="S142" s="41"/>
     </row>
     <row r="143" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
+      <c r="A143" s="102"/>
       <c r="K143" s="31"/>
       <c r="L143" s="41"/>
       <c r="M143" s="41"/>
@@ -4957,7 +4990,7 @@
       <c r="S143" s="41"/>
     </row>
     <row r="144" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
+      <c r="A144" s="102"/>
       <c r="K144" s="31"/>
       <c r="L144" s="41"/>
       <c r="M144" s="41"/>
@@ -4969,7 +5002,7 @@
       <c r="S144" s="41"/>
     </row>
     <row r="145" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
+      <c r="A145" s="102"/>
       <c r="K145" s="31"/>
       <c r="L145" s="41"/>
       <c r="M145" s="41"/>
@@ -4981,7 +5014,7 @@
       <c r="S145" s="41"/>
     </row>
     <row r="146" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
+      <c r="A146" s="102"/>
       <c r="K146" s="31"/>
       <c r="L146" s="41"/>
       <c r="M146" s="41"/>
@@ -4993,7 +5026,7 @@
       <c r="S146" s="41"/>
     </row>
     <row r="147" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
+      <c r="A147" s="102"/>
       <c r="K147" s="31"/>
       <c r="L147" s="41"/>
       <c r="M147" s="41"/>
@@ -5005,7 +5038,7 @@
       <c r="S147" s="41"/>
     </row>
     <row r="148" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
+      <c r="A148" s="102"/>
       <c r="K148" s="31"/>
       <c r="L148" s="41"/>
       <c r="M148" s="41"/>
@@ -5017,7 +5050,7 @@
       <c r="S148" s="41"/>
     </row>
     <row r="149" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
+      <c r="A149" s="102"/>
       <c r="K149" s="31"/>
       <c r="L149" s="41"/>
       <c r="M149" s="41"/>
@@ -5029,7 +5062,7 @@
       <c r="S149" s="41"/>
     </row>
     <row r="150" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
+      <c r="A150" s="102"/>
       <c r="K150" s="31"/>
       <c r="L150" s="41"/>
       <c r="M150" s="41"/>
@@ -5041,7 +5074,7 @@
       <c r="S150" s="41"/>
     </row>
     <row r="151" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
+      <c r="A151" s="102"/>
       <c r="K151" s="31"/>
       <c r="L151" s="41"/>
       <c r="M151" s="41"/>
@@ -5053,7 +5086,7 @@
       <c r="S151" s="41"/>
     </row>
     <row r="152" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
+      <c r="A152" s="102"/>
       <c r="K152" s="31"/>
       <c r="L152" s="41"/>
       <c r="M152" s="41"/>
@@ -5065,7 +5098,7 @@
       <c r="S152" s="41"/>
     </row>
     <row r="153" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
+      <c r="A153" s="102"/>
       <c r="K153" s="31"/>
       <c r="L153" s="41"/>
       <c r="M153" s="41"/>
@@ -5077,7 +5110,7 @@
       <c r="S153" s="41"/>
     </row>
     <row r="154" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
+      <c r="A154" s="102"/>
       <c r="K154" s="31"/>
       <c r="L154" s="41"/>
       <c r="M154" s="41"/>
@@ -5089,7 +5122,7 @@
       <c r="S154" s="41"/>
     </row>
     <row r="155" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
+      <c r="A155" s="102"/>
       <c r="K155" s="31"/>
       <c r="L155" s="41"/>
       <c r="M155" s="41"/>
@@ -5101,7 +5134,7 @@
       <c r="S155" s="41"/>
     </row>
     <row r="156" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
+      <c r="A156" s="102"/>
       <c r="K156" s="31"/>
       <c r="L156" s="41"/>
       <c r="M156" s="41"/>
@@ -5113,7 +5146,7 @@
       <c r="S156" s="41"/>
     </row>
     <row r="157" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
+      <c r="A157" s="102"/>
       <c r="K157" s="31"/>
       <c r="L157" s="41"/>
       <c r="M157" s="41"/>
@@ -5125,7 +5158,7 @@
       <c r="S157" s="41"/>
     </row>
     <row r="158" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
+      <c r="A158" s="102"/>
       <c r="K158" s="31"/>
       <c r="L158" s="41"/>
       <c r="M158" s="41"/>
@@ -5137,7 +5170,7 @@
       <c r="S158" s="41"/>
     </row>
     <row r="159" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
+      <c r="A159" s="102"/>
       <c r="K159" s="31"/>
       <c r="L159" s="41"/>
       <c r="M159" s="41"/>
@@ -5149,7 +5182,7 @@
       <c r="S159" s="41"/>
     </row>
     <row r="160" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
+      <c r="A160" s="102"/>
       <c r="K160" s="31"/>
       <c r="L160" s="41"/>
       <c r="M160" s="41"/>
@@ -5161,7 +5194,7 @@
       <c r="S160" s="41"/>
     </row>
     <row r="161" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
+      <c r="A161" s="102"/>
       <c r="K161" s="31"/>
       <c r="L161" s="41"/>
       <c r="M161" s="41"/>
@@ -5173,7 +5206,7 @@
       <c r="S161" s="41"/>
     </row>
     <row r="162" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
+      <c r="A162" s="102"/>
       <c r="K162" s="31"/>
       <c r="L162" s="41"/>
       <c r="M162" s="41"/>
@@ -5185,7 +5218,7 @@
       <c r="S162" s="41"/>
     </row>
     <row r="163" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
+      <c r="A163" s="102"/>
       <c r="K163" s="31"/>
       <c r="L163" s="41"/>
       <c r="M163" s="41"/>
@@ -5197,7 +5230,7 @@
       <c r="S163" s="41"/>
     </row>
     <row r="164" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
+      <c r="A164" s="102"/>
       <c r="K164" s="31"/>
       <c r="L164" s="41"/>
       <c r="M164" s="41"/>
@@ -5209,7 +5242,7 @@
       <c r="S164" s="41"/>
     </row>
     <row r="165" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
+      <c r="A165" s="102"/>
       <c r="K165" s="31"/>
       <c r="L165" s="41"/>
       <c r="M165" s="41"/>
@@ -5221,7 +5254,7 @@
       <c r="S165" s="41"/>
     </row>
     <row r="166" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
+      <c r="A166" s="102"/>
       <c r="K166" s="31"/>
       <c r="L166" s="41"/>
       <c r="M166" s="41"/>
@@ -5233,7 +5266,7 @@
       <c r="S166" s="41"/>
     </row>
     <row r="167" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
+      <c r="A167" s="102"/>
       <c r="K167" s="31"/>
       <c r="L167" s="41"/>
       <c r="M167" s="41"/>
@@ -5245,7 +5278,7 @@
       <c r="S167" s="41"/>
     </row>
     <row r="168" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
+      <c r="A168" s="102"/>
       <c r="K168" s="31"/>
       <c r="L168" s="41"/>
       <c r="M168" s="41"/>
@@ -5257,7 +5290,7 @@
       <c r="S168" s="41"/>
     </row>
     <row r="169" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
+      <c r="A169" s="102"/>
       <c r="K169" s="31"/>
       <c r="L169" s="41"/>
       <c r="M169" s="41"/>
@@ -5269,7 +5302,7 @@
       <c r="S169" s="41"/>
     </row>
     <row r="170" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="31"/>
+      <c r="A170" s="102"/>
       <c r="K170" s="31"/>
       <c r="L170" s="41"/>
       <c r="M170" s="41"/>
@@ -5281,7 +5314,7 @@
       <c r="S170" s="41"/>
     </row>
     <row r="171" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
+      <c r="A171" s="102"/>
       <c r="K171" s="31"/>
       <c r="L171" s="41"/>
       <c r="M171" s="41"/>
@@ -5293,7 +5326,7 @@
       <c r="S171" s="41"/>
     </row>
     <row r="172" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
+      <c r="A172" s="102"/>
       <c r="K172" s="31"/>
       <c r="L172" s="41"/>
       <c r="M172" s="41"/>
@@ -5305,7 +5338,7 @@
       <c r="S172" s="41"/>
     </row>
     <row r="173" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31"/>
+      <c r="A173" s="102"/>
       <c r="K173" s="31"/>
       <c r="L173" s="41"/>
       <c r="M173" s="41"/>
@@ -5317,7 +5350,7 @@
       <c r="S173" s="41"/>
     </row>
     <row r="174" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="31"/>
+      <c r="A174" s="102"/>
       <c r="K174" s="31"/>
       <c r="L174" s="41"/>
       <c r="M174" s="41"/>
@@ -5329,7 +5362,7 @@
       <c r="S174" s="41"/>
     </row>
     <row r="175" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31"/>
+      <c r="A175" s="102"/>
       <c r="K175" s="31"/>
       <c r="L175" s="41"/>
       <c r="M175" s="41"/>
@@ -5341,7 +5374,7 @@
       <c r="S175" s="41"/>
     </row>
     <row r="176" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="31"/>
+      <c r="A176" s="102"/>
       <c r="K176" s="31"/>
       <c r="L176" s="41"/>
       <c r="M176" s="41"/>
@@ -5353,7 +5386,7 @@
       <c r="S176" s="41"/>
     </row>
     <row r="177" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="31"/>
+      <c r="A177" s="102"/>
       <c r="K177" s="31"/>
       <c r="L177" s="41"/>
       <c r="M177" s="41"/>
@@ -5365,7 +5398,7 @@
       <c r="S177" s="41"/>
     </row>
     <row r="178" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="31"/>
+      <c r="A178" s="102"/>
       <c r="K178" s="31"/>
       <c r="L178" s="41"/>
       <c r="M178" s="41"/>
@@ -5377,7 +5410,7 @@
       <c r="S178" s="41"/>
     </row>
     <row r="179" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="31"/>
+      <c r="A179" s="102"/>
       <c r="K179" s="31"/>
       <c r="L179" s="41"/>
       <c r="M179" s="41"/>
@@ -5389,7 +5422,7 @@
       <c r="S179" s="41"/>
     </row>
     <row r="180" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="31"/>
+      <c r="A180" s="102"/>
       <c r="K180" s="31"/>
       <c r="L180" s="41"/>
       <c r="M180" s="41"/>
@@ -5401,24 +5434,24 @@
       <c r="S180" s="41"/>
     </row>
     <row r="181" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
+      <c r="A181" s="102"/>
       <c r="K181" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L181" s="131" t="s">
+      <c r="L181" s="135" t="s">
         <v>249</v>
       </c>
-      <c r="M181" s="131"/>
-      <c r="N181" s="131"/>
-      <c r="O181" s="131"/>
-      <c r="P181" s="131"/>
-      <c r="Q181" s="131"/>
-      <c r="R181" s="131"/>
-      <c r="S181" s="131"/>
+      <c r="M181" s="135"/>
+      <c r="N181" s="135"/>
+      <c r="O181" s="135"/>
+      <c r="P181" s="135"/>
+      <c r="Q181" s="135"/>
+      <c r="R181" s="135"/>
+      <c r="S181" s="135"/>
     </row>
     <row r="182" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="31" t="str">
+      <c r="A182" s="102" t="str">
         <f t="shared" ref="A182:A189" si="3">IF(B182&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -5438,7 +5471,7 @@
       <c r="S182" s="41"/>
     </row>
     <row r="183" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="31"/>
+      <c r="A183" s="102"/>
       <c r="K183" s="31"/>
       <c r="L183" s="41"/>
       <c r="M183" s="41"/>
@@ -5450,7 +5483,7 @@
       <c r="S183" s="41"/>
     </row>
     <row r="184" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="31"/>
+      <c r="A184" s="102"/>
       <c r="K184" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
@@ -5467,60 +5500,60 @@
       <c r="S184" s="41"/>
     </row>
     <row r="185" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
+      <c r="A185" s="102"/>
       <c r="K185" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L185" s="133" t="s">
+      <c r="L185" s="136" t="s">
         <v>276</v>
       </c>
-      <c r="M185" s="133"/>
-      <c r="N185" s="133"/>
-      <c r="O185" s="133"/>
-      <c r="P185" s="133"/>
-      <c r="Q185" s="133"/>
-      <c r="R185" s="133"/>
-      <c r="S185" s="133"/>
+      <c r="M185" s="136"/>
+      <c r="N185" s="136"/>
+      <c r="O185" s="136"/>
+      <c r="P185" s="136"/>
+      <c r="Q185" s="136"/>
+      <c r="R185" s="136"/>
+      <c r="S185" s="136"/>
     </row>
     <row r="186" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
+      <c r="A186" s="102"/>
       <c r="K186" s="31"/>
-      <c r="L186" s="70"/>
-      <c r="M186" s="70"/>
-      <c r="N186" s="70"/>
-      <c r="O186" s="70"/>
-      <c r="P186" s="70"/>
-      <c r="Q186" s="70"/>
-      <c r="R186" s="70"/>
-      <c r="S186" s="70"/>
+      <c r="L186" s="65"/>
+      <c r="M186" s="65"/>
+      <c r="N186" s="65"/>
+      <c r="O186" s="65"/>
+      <c r="P186" s="65"/>
+      <c r="Q186" s="65"/>
+      <c r="R186" s="65"/>
+      <c r="S186" s="65"/>
     </row>
     <row r="187" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="31"/>
+      <c r="A187" s="102"/>
       <c r="K187" s="31"/>
-      <c r="L187" s="70"/>
-      <c r="M187" s="70"/>
-      <c r="N187" s="70"/>
-      <c r="O187" s="70"/>
-      <c r="P187" s="70"/>
-      <c r="Q187" s="70"/>
-      <c r="R187" s="70"/>
-      <c r="S187" s="70"/>
+      <c r="L187" s="65"/>
+      <c r="M187" s="65"/>
+      <c r="N187" s="65"/>
+      <c r="O187" s="65"/>
+      <c r="P187" s="65"/>
+      <c r="Q187" s="65"/>
+      <c r="R187" s="65"/>
+      <c r="S187" s="65"/>
     </row>
     <row r="188" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="31"/>
+      <c r="A188" s="102"/>
       <c r="K188" s="31"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
-      <c r="N188" s="70"/>
-      <c r="O188" s="70"/>
-      <c r="P188" s="70"/>
-      <c r="Q188" s="70"/>
-      <c r="R188" s="70"/>
-      <c r="S188" s="70"/>
+      <c r="L188" s="65"/>
+      <c r="M188" s="65"/>
+      <c r="N188" s="65"/>
+      <c r="O188" s="65"/>
+      <c r="P188" s="65"/>
+      <c r="Q188" s="65"/>
+      <c r="R188" s="65"/>
+      <c r="S188" s="65"/>
     </row>
     <row r="189" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="31" t="str">
+      <c r="A189" s="102" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5528,19 +5561,19 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L189" s="131" t="s">
+      <c r="L189" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="M189" s="131"/>
-      <c r="N189" s="131"/>
-      <c r="O189" s="131"/>
-      <c r="P189" s="131"/>
-      <c r="Q189" s="131"/>
-      <c r="R189" s="131"/>
-      <c r="S189" s="131"/>
+      <c r="M189" s="135"/>
+      <c r="N189" s="135"/>
+      <c r="O189" s="135"/>
+      <c r="P189" s="135"/>
+      <c r="Q189" s="135"/>
+      <c r="R189" s="135"/>
+      <c r="S189" s="135"/>
     </row>
     <row r="190" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="31"/>
+      <c r="A190" s="102"/>
       <c r="K190" s="31"/>
       <c r="L190" s="41"/>
       <c r="M190" s="41"/>
@@ -5552,118 +5585,118 @@
       <c r="S190" s="41"/>
     </row>
     <row r="191" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="31"/>
+      <c r="A191" s="102"/>
       <c r="K191" s="31" t="str">
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L191" s="131" t="s">
+      <c r="L191" s="135" t="s">
         <v>253</v>
       </c>
-      <c r="M191" s="131"/>
-      <c r="N191" s="131"/>
-      <c r="O191" s="131"/>
-      <c r="P191" s="131"/>
-      <c r="Q191" s="131"/>
-      <c r="R191" s="131"/>
-      <c r="S191" s="131"/>
+      <c r="M191" s="135"/>
+      <c r="N191" s="135"/>
+      <c r="O191" s="135"/>
+      <c r="P191" s="135"/>
+      <c r="Q191" s="135"/>
+      <c r="R191" s="135"/>
+      <c r="S191" s="135"/>
     </row>
     <row r="192" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="31"/>
+      <c r="A192" s="102"/>
       <c r="K192" s="31"/>
-      <c r="L192" s="131"/>
-      <c r="M192" s="131"/>
-      <c r="N192" s="131"/>
-      <c r="O192" s="131"/>
-      <c r="P192" s="131"/>
-      <c r="Q192" s="131"/>
-      <c r="R192" s="131"/>
-      <c r="S192" s="131"/>
+      <c r="L192" s="135"/>
+      <c r="M192" s="135"/>
+      <c r="N192" s="135"/>
+      <c r="O192" s="135"/>
+      <c r="P192" s="135"/>
+      <c r="Q192" s="135"/>
+      <c r="R192" s="135"/>
+      <c r="S192" s="135"/>
     </row>
     <row r="193" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="31"/>
-      <c r="K193" s="87"/>
-      <c r="L193" s="103"/>
+      <c r="A193" s="102"/>
+      <c r="K193" s="82"/>
+      <c r="L193" s="98"/>
       <c r="M193" s="42"/>
       <c r="P193" s="31"/>
     </row>
     <row r="194" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="31"/>
-      <c r="K194" s="87"/>
-      <c r="L194" s="103"/>
+      <c r="A194" s="102"/>
+      <c r="K194" s="82"/>
+      <c r="L194" s="98"/>
       <c r="N194" s="42"/>
       <c r="O194" s="42"/>
     </row>
     <row r="195" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="31"/>
-      <c r="K195" s="87" t="s">
+      <c r="A195" s="102"/>
+      <c r="K195" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="L195" s="103" t="s">
+      <c r="L195" s="98" t="s">
         <v>274</v>
       </c>
       <c r="N195" s="42"/>
       <c r="O195" s="42"/>
     </row>
     <row r="196" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="31" t="str">
+      <c r="A196" s="102" t="str">
         <f t="shared" ref="A196" si="4">IF(B196&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="K196" s="31"/>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
+      <c r="A197" s="77"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="85"/>
+      <c r="L197" s="80"/>
     </row>
     <row r="198" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="109"/>
-      <c r="B198" s="111"/>
-      <c r="C198" s="111"/>
-      <c r="D198" s="111"/>
-      <c r="E198" s="111"/>
-      <c r="F198" s="111"/>
-      <c r="G198" s="111"/>
-      <c r="H198" s="111"/>
-      <c r="K198" s="95" t="s">
+      <c r="A198" s="102"/>
+      <c r="B198" s="104"/>
+      <c r="C198" s="104"/>
+      <c r="D198" s="104"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="104"/>
+      <c r="G198" s="104"/>
+      <c r="H198" s="104"/>
+      <c r="K198" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="L198" s="85"/>
+      <c r="L198" s="80"/>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A199" s="109"/>
-      <c r="C199" s="111"/>
-      <c r="D199" s="111"/>
-      <c r="E199" s="111"/>
-      <c r="F199" s="111"/>
-      <c r="G199" s="111"/>
-      <c r="H199" s="111"/>
-      <c r="K199" s="94" t="s">
+      <c r="A199" s="102"/>
+      <c r="C199" s="104"/>
+      <c r="D199" s="104"/>
+      <c r="E199" s="104"/>
+      <c r="F199" s="104"/>
+      <c r="G199" s="104"/>
+      <c r="H199" s="104"/>
+      <c r="K199" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="L199" s="79" t="s">
+      <c r="L199" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="M199" s="88"/>
-      <c r="N199" s="89"/>
+      <c r="M199" s="83"/>
+      <c r="N199" s="84"/>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="109"/>
-      <c r="B200" s="111"/>
-      <c r="C200" s="111"/>
-      <c r="D200" s="111"/>
-      <c r="E200" s="111"/>
-      <c r="F200" s="111"/>
-      <c r="G200" s="111"/>
-      <c r="H200" s="111"/>
+      <c r="A200" s="102"/>
+      <c r="B200" s="104"/>
+      <c r="C200" s="104"/>
+      <c r="D200" s="104"/>
+      <c r="E200" s="104"/>
+      <c r="F200" s="104"/>
+      <c r="G200" s="104"/>
+      <c r="H200" s="104"/>
       <c r="I200" s="29"/>
       <c r="J200" s="16"/>
-      <c r="K200" s="87"/>
+      <c r="K200" s="82"/>
       <c r="L200" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="N200" s="68"/>
+      <c r="N200" s="63"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
@@ -5673,21 +5706,21 @@
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A201" s="109"/>
-      <c r="B201" s="111"/>
-      <c r="C201" s="111"/>
-      <c r="D201" s="111"/>
-      <c r="E201" s="111"/>
-      <c r="F201" s="111"/>
-      <c r="G201" s="111"/>
-      <c r="H201" s="111"/>
+      <c r="A201" s="102"/>
+      <c r="B201" s="104"/>
+      <c r="C201" s="104"/>
+      <c r="D201" s="104"/>
+      <c r="E201" s="104"/>
+      <c r="F201" s="104"/>
+      <c r="G201" s="104"/>
+      <c r="H201" s="104"/>
       <c r="I201" s="29"/>
       <c r="J201" s="16"/>
-      <c r="K201" s="87"/>
-      <c r="L201" s="90" t="s">
+      <c r="K201" s="82"/>
+      <c r="L201" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="N201" s="68"/>
+      <c r="N201" s="63"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
@@ -5697,19 +5730,19 @@
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A202" s="109"/>
-      <c r="B202" s="111"/>
-      <c r="C202" s="111"/>
-      <c r="D202" s="111"/>
-      <c r="E202" s="111"/>
-      <c r="F202" s="111"/>
-      <c r="G202" s="111"/>
-      <c r="H202" s="111"/>
+      <c r="A202" s="102"/>
+      <c r="B202" s="104"/>
+      <c r="C202" s="104"/>
+      <c r="D202" s="104"/>
+      <c r="E202" s="104"/>
+      <c r="F202" s="104"/>
+      <c r="G202" s="104"/>
+      <c r="H202" s="104"/>
       <c r="I202" s="29"/>
       <c r="J202" s="16"/>
-      <c r="K202" s="87"/>
-      <c r="L202" s="90"/>
-      <c r="N202" s="68"/>
+      <c r="K202" s="82"/>
+      <c r="L202" s="85"/>
+      <c r="N202" s="63"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
@@ -5719,19 +5752,19 @@
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A203" s="109"/>
-      <c r="B203" s="111"/>
-      <c r="C203" s="111"/>
-      <c r="D203" s="111"/>
-      <c r="E203" s="111"/>
-      <c r="F203" s="111"/>
-      <c r="G203" s="111"/>
-      <c r="H203" s="111"/>
+      <c r="A203" s="102"/>
+      <c r="B203" s="104"/>
+      <c r="C203" s="104"/>
+      <c r="D203" s="104"/>
+      <c r="E203" s="104"/>
+      <c r="F203" s="104"/>
+      <c r="G203" s="104"/>
+      <c r="H203" s="104"/>
       <c r="I203" s="29"/>
       <c r="J203" s="16"/>
-      <c r="K203" s="87"/>
-      <c r="L203" s="90"/>
-      <c r="N203" s="68"/>
+      <c r="K203" s="82"/>
+      <c r="L203" s="85"/>
+      <c r="N203" s="63"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
@@ -5741,22 +5774,22 @@
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A204" s="109"/>
-      <c r="B204" s="111"/>
-      <c r="C204" s="111"/>
-      <c r="D204" s="111"/>
-      <c r="E204" s="111"/>
-      <c r="F204" s="111"/>
-      <c r="G204" s="111"/>
-      <c r="H204" s="111"/>
-      <c r="K204" s="101" t="s">
+      <c r="A204" s="102"/>
+      <c r="B204" s="104"/>
+      <c r="C204" s="104"/>
+      <c r="D204" s="104"/>
+      <c r="E204" s="104"/>
+      <c r="F204" s="104"/>
+      <c r="G204" s="104"/>
+      <c r="H204" s="104"/>
+      <c r="K204" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="L204" s="91" t="s">
+      <c r="L204" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="M204" s="78"/>
-      <c r="N204" s="92"/>
+      <c r="M204" s="73"/>
+      <c r="N204" s="87"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
@@ -5765,19 +5798,19 @@
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A205" s="109"/>
-      <c r="B205" s="111"/>
-      <c r="C205" s="111"/>
-      <c r="D205" s="111"/>
-      <c r="E205" s="111"/>
-      <c r="F205" s="111"/>
-      <c r="G205" s="111"/>
-      <c r="H205" s="111"/>
-      <c r="K205" s="93"/>
-      <c r="L205" s="90" t="s">
+      <c r="A205" s="102"/>
+      <c r="B205" s="104"/>
+      <c r="C205" s="104"/>
+      <c r="D205" s="104"/>
+      <c r="E205" s="104"/>
+      <c r="F205" s="104"/>
+      <c r="G205" s="104"/>
+      <c r="H205" s="104"/>
+      <c r="K205" s="88"/>
+      <c r="L205" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="N205" s="68"/>
+      <c r="N205" s="63"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
@@ -5786,19 +5819,19 @@
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A206" s="109"/>
-      <c r="B206" s="111"/>
-      <c r="C206" s="111"/>
-      <c r="D206" s="111"/>
-      <c r="E206" s="111"/>
-      <c r="F206" s="111"/>
-      <c r="G206" s="111"/>
-      <c r="H206" s="111"/>
-      <c r="K206" s="93"/>
+      <c r="A206" s="102"/>
+      <c r="B206" s="104"/>
+      <c r="C206" s="104"/>
+      <c r="D206" s="104"/>
+      <c r="E206" s="104"/>
+      <c r="F206" s="104"/>
+      <c r="G206" s="104"/>
+      <c r="H206" s="104"/>
+      <c r="K206" s="88"/>
       <c r="L206" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="N206" s="68"/>
+      <c r="N206" s="63"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
@@ -5807,19 +5840,19 @@
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A207" s="109"/>
-      <c r="B207" s="111"/>
-      <c r="C207" s="111"/>
-      <c r="D207" s="111"/>
-      <c r="E207" s="111"/>
-      <c r="F207" s="111"/>
-      <c r="G207" s="111"/>
-      <c r="H207" s="111"/>
-      <c r="K207" s="93"/>
+      <c r="A207" s="102"/>
+      <c r="B207" s="104"/>
+      <c r="C207" s="104"/>
+      <c r="D207" s="104"/>
+      <c r="E207" s="104"/>
+      <c r="F207" s="104"/>
+      <c r="G207" s="104"/>
+      <c r="H207" s="104"/>
+      <c r="K207" s="88"/>
       <c r="L207" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="N207" s="68"/>
+      <c r="N207" s="63"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
@@ -5828,19 +5861,19 @@
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A208" s="109"/>
-      <c r="B208" s="111"/>
-      <c r="C208" s="111"/>
-      <c r="D208" s="111"/>
-      <c r="E208" s="111"/>
-      <c r="F208" s="111"/>
-      <c r="G208" s="111"/>
-      <c r="H208" s="111"/>
-      <c r="K208" s="93"/>
+      <c r="A208" s="102"/>
+      <c r="B208" s="104"/>
+      <c r="C208" s="104"/>
+      <c r="D208" s="104"/>
+      <c r="E208" s="104"/>
+      <c r="F208" s="104"/>
+      <c r="G208" s="104"/>
+      <c r="H208" s="104"/>
+      <c r="K208" s="88"/>
       <c r="L208" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="N208" s="68"/>
+      <c r="N208" s="63"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
@@ -5849,17 +5882,17 @@
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A209" s="109"/>
-      <c r="B209" s="111"/>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="K209" s="93"/>
+      <c r="A209" s="102"/>
+      <c r="B209" s="104"/>
+      <c r="C209" s="104"/>
+      <c r="D209" s="104"/>
+      <c r="E209" s="104"/>
+      <c r="F209" s="104"/>
+      <c r="G209" s="104"/>
+      <c r="H209" s="104"/>
+      <c r="K209" s="88"/>
       <c r="L209" s="25"/>
-      <c r="N209" s="68"/>
+      <c r="N209" s="63"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
@@ -5868,18 +5901,18 @@
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A210" s="109"/>
-      <c r="B210" s="111"/>
-      <c r="C210" s="111"/>
-      <c r="D210" s="111"/>
-      <c r="E210" s="111"/>
-      <c r="F210" s="111"/>
-      <c r="G210" s="111"/>
-      <c r="H210" s="111"/>
-      <c r="K210" s="97"/>
-      <c r="L210" s="100"/>
+      <c r="A210" s="102"/>
+      <c r="B210" s="104"/>
+      <c r="C210" s="104"/>
+      <c r="D210" s="104"/>
+      <c r="E210" s="104"/>
+      <c r="F210" s="104"/>
+      <c r="G210" s="104"/>
+      <c r="H210" s="104"/>
+      <c r="K210" s="92"/>
+      <c r="L210" s="95"/>
       <c r="M210" s="6"/>
-      <c r="N210" s="98"/>
+      <c r="N210" s="93"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
@@ -5888,21 +5921,21 @@
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A211" s="109"/>
-      <c r="B211" s="111"/>
-      <c r="C211" s="111"/>
-      <c r="D211" s="111"/>
-      <c r="E211" s="111"/>
-      <c r="F211" s="111"/>
-      <c r="G211" s="111"/>
-      <c r="H211" s="111"/>
-      <c r="K211" s="87" t="s">
+      <c r="A211" s="102"/>
+      <c r="B211" s="104"/>
+      <c r="C211" s="104"/>
+      <c r="D211" s="104"/>
+      <c r="E211" s="104"/>
+      <c r="F211" s="104"/>
+      <c r="G211" s="104"/>
+      <c r="H211" s="104"/>
+      <c r="K211" s="82" t="s">
         <v>254</v>
       </c>
       <c r="L211" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="N211" s="68"/>
+      <c r="N211" s="63"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
@@ -5911,311 +5944,311 @@
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A212" s="109"/>
-      <c r="B212" s="111"/>
-      <c r="C212" s="111"/>
-      <c r="D212" s="111"/>
-      <c r="E212" s="111"/>
-      <c r="F212" s="111"/>
-      <c r="G212" s="111"/>
-      <c r="H212" s="111"/>
-      <c r="K212" s="67"/>
+      <c r="A212" s="102"/>
+      <c r="B212" s="104"/>
+      <c r="C212" s="104"/>
+      <c r="D212" s="104"/>
+      <c r="E212" s="104"/>
+      <c r="F212" s="104"/>
+      <c r="G212" s="104"/>
+      <c r="H212" s="104"/>
+      <c r="K212" s="62"/>
       <c r="L212" t="s">
         <v>260</v>
       </c>
-      <c r="N212" s="68"/>
+      <c r="N212" s="63"/>
       <c r="S212" s="1"/>
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A213" s="109"/>
-      <c r="B213" s="111"/>
-      <c r="C213" s="111"/>
-      <c r="D213" s="111"/>
-      <c r="E213" s="111"/>
-      <c r="F213" s="111"/>
-      <c r="G213" s="111"/>
-      <c r="H213" s="111"/>
-      <c r="K213" s="67"/>
+      <c r="A213" s="102"/>
+      <c r="B213" s="104"/>
+      <c r="C213" s="104"/>
+      <c r="D213" s="104"/>
+      <c r="E213" s="104"/>
+      <c r="F213" s="104"/>
+      <c r="G213" s="104"/>
+      <c r="H213" s="104"/>
+      <c r="K213" s="62"/>
       <c r="L213" t="s">
         <v>261</v>
       </c>
-      <c r="N213" s="68"/>
+      <c r="N213" s="63"/>
       <c r="S213" s="1"/>
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A214" s="109"/>
-      <c r="B214" s="111"/>
-      <c r="C214" s="111"/>
-      <c r="D214" s="111"/>
-      <c r="E214" s="111"/>
-      <c r="F214" s="111"/>
-      <c r="G214" s="111"/>
-      <c r="H214" s="111"/>
-      <c r="K214" s="67"/>
-      <c r="N214" s="68"/>
+      <c r="A214" s="102"/>
+      <c r="B214" s="104"/>
+      <c r="C214" s="104"/>
+      <c r="D214" s="104"/>
+      <c r="E214" s="104"/>
+      <c r="F214" s="104"/>
+      <c r="G214" s="104"/>
+      <c r="H214" s="104"/>
+      <c r="K214" s="62"/>
+      <c r="N214" s="63"/>
       <c r="S214" s="1"/>
     </row>
     <row r="215" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="109"/>
-      <c r="B215" s="111"/>
-      <c r="C215" s="111"/>
-      <c r="D215" s="111"/>
-      <c r="E215" s="111"/>
-      <c r="F215" s="111"/>
-      <c r="G215" s="111"/>
-      <c r="H215" s="111"/>
-      <c r="K215" s="102"/>
-      <c r="L215" s="80"/>
+      <c r="A215" s="102"/>
+      <c r="B215" s="104"/>
+      <c r="C215" s="104"/>
+      <c r="D215" s="104"/>
+      <c r="E215" s="104"/>
+      <c r="F215" s="104"/>
+      <c r="G215" s="104"/>
+      <c r="H215" s="104"/>
+      <c r="K215" s="97"/>
+      <c r="L215" s="75"/>
       <c r="M215" s="21"/>
-      <c r="N215" s="69"/>
+      <c r="N215" s="64"/>
       <c r="S215" s="1"/>
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A216" s="109"/>
-      <c r="B216" s="111"/>
-      <c r="C216" s="111"/>
-      <c r="D216" s="111"/>
-      <c r="E216" s="111"/>
-      <c r="F216" s="111"/>
-      <c r="G216" s="111"/>
-      <c r="H216" s="111"/>
+      <c r="A216" s="102"/>
+      <c r="B216" s="104"/>
+      <c r="C216" s="104"/>
+      <c r="D216" s="104"/>
+      <c r="E216" s="104"/>
+      <c r="F216" s="104"/>
+      <c r="G216" s="104"/>
+      <c r="H216" s="104"/>
       <c r="K216" s="31"/>
       <c r="L216" s="16"/>
     </row>
     <row r="217" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="109"/>
-      <c r="B217" s="111"/>
-      <c r="C217" s="111"/>
-      <c r="D217" s="111"/>
-      <c r="E217" s="111"/>
-      <c r="F217" s="111"/>
-      <c r="G217" s="111"/>
-      <c r="H217" s="111"/>
+      <c r="A217" s="102"/>
+      <c r="B217" s="104"/>
+      <c r="C217" s="104"/>
+      <c r="D217" s="104"/>
+      <c r="E217" s="104"/>
+      <c r="F217" s="104"/>
+      <c r="G217" s="104"/>
+      <c r="H217" s="104"/>
     </row>
     <row r="218" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="31"/>
-      <c r="K218" s="58" t="s">
+      <c r="A218" s="102"/>
+      <c r="K218" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="219" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="31" t="str">
+      <c r="A219" s="102" t="str">
         <f t="shared" ref="A219:A222" si="5">IF(B219&lt;&gt;"","•","")</f>
         <v/>
       </c>
-      <c r="K219" s="96" t="s">
+      <c r="K219" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="L219" s="79" t="s">
+      <c r="L219" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="M219" s="79"/>
-      <c r="N219" s="86"/>
+      <c r="M219" s="74"/>
+      <c r="N219" s="81"/>
     </row>
     <row r="220" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="31" t="str">
+      <c r="A220" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K220" s="87" t="s">
+      <c r="K220" s="82" t="s">
         <v>15</v>
       </c>
       <c r="L220" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="N220" s="75"/>
+      <c r="N220" s="70"/>
     </row>
     <row r="221" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="31" t="str">
+      <c r="A221" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K221" s="87" t="s">
+      <c r="K221" s="82" t="s">
         <v>15</v>
       </c>
       <c r="L221" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="N221" s="75"/>
+      <c r="N221" s="70"/>
     </row>
     <row r="222" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="31" t="str">
+      <c r="A222" s="102" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K222" s="87" t="s">
+      <c r="K222" s="82" t="s">
         <v>15</v>
       </c>
       <c r="L222" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="N222" s="75"/>
+      <c r="N222" s="70"/>
     </row>
     <row r="223" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="59" t="s">
+      <c r="A223" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B223" s="58" t="s">
+      <c r="B223" s="56" t="s">
         <v>208</v>
       </c>
       <c r="D223" s="42"/>
       <c r="E223" s="42"/>
       <c r="F223" s="42"/>
       <c r="G223" s="42"/>
-      <c r="H223" s="57"/>
-      <c r="J223" s="58"/>
+      <c r="H223" s="55"/>
+      <c r="J223" s="56"/>
       <c r="K223"/>
       <c r="M223" s="42"/>
       <c r="N223" s="42"/>
       <c r="O223" s="42"/>
     </row>
     <row r="224" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="64" t="s">
+      <c r="A224" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="58" t="s">
+      <c r="B224" s="56" t="s">
         <v>221</v>
       </c>
       <c r="D224" s="42"/>
       <c r="E224" s="42"/>
       <c r="F224" s="42"/>
       <c r="G224" s="42"/>
-      <c r="H224" s="57"/>
-      <c r="J224" s="58"/>
+      <c r="H224" s="55"/>
+      <c r="J224" s="56"/>
       <c r="M224" s="42"/>
       <c r="N224" s="42"/>
       <c r="O224" s="42"/>
     </row>
     <row r="225" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="59"/>
-      <c r="B225" s="133" t="s">
+      <c r="A225" s="57"/>
+      <c r="B225" s="136" t="s">
         <v>275</v>
       </c>
-      <c r="C225" s="133"/>
-      <c r="D225" s="133"/>
-      <c r="E225" s="133"/>
-      <c r="F225" s="133"/>
-      <c r="G225" s="133"/>
-      <c r="H225" s="133"/>
-      <c r="J225" s="58"/>
+      <c r="C225" s="136"/>
+      <c r="D225" s="136"/>
+      <c r="E225" s="136"/>
+      <c r="F225" s="136"/>
+      <c r="G225" s="136"/>
+      <c r="H225" s="136"/>
+      <c r="J225" s="56"/>
       <c r="M225" s="42"/>
       <c r="N225" s="42"/>
       <c r="O225" s="42"/>
     </row>
     <row r="226" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="59"/>
-      <c r="B226" s="133"/>
-      <c r="C226" s="133"/>
-      <c r="D226" s="133"/>
-      <c r="E226" s="133"/>
-      <c r="F226" s="133"/>
-      <c r="G226" s="133"/>
-      <c r="H226" s="133"/>
-      <c r="J226" s="58"/>
+      <c r="A226" s="57"/>
+      <c r="B226" s="136"/>
+      <c r="C226" s="136"/>
+      <c r="D226" s="136"/>
+      <c r="E226" s="136"/>
+      <c r="F226" s="136"/>
+      <c r="G226" s="136"/>
+      <c r="H226" s="136"/>
+      <c r="J226" s="56"/>
       <c r="L226" s="42"/>
       <c r="M226" s="42"/>
       <c r="N226" s="42"/>
       <c r="O226" s="42"/>
     </row>
     <row r="227" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="59"/>
-      <c r="B227" s="133"/>
-      <c r="C227" s="133"/>
-      <c r="D227" s="133"/>
-      <c r="E227" s="133"/>
-      <c r="F227" s="133"/>
-      <c r="G227" s="133"/>
-      <c r="H227" s="133"/>
-      <c r="J227" s="58"/>
+      <c r="A227" s="57"/>
+      <c r="B227" s="136"/>
+      <c r="C227" s="136"/>
+      <c r="D227" s="136"/>
+      <c r="E227" s="136"/>
+      <c r="F227" s="136"/>
+      <c r="G227" s="136"/>
+      <c r="H227" s="136"/>
+      <c r="J227" s="56"/>
       <c r="L227" s="42"/>
       <c r="M227" s="42"/>
       <c r="N227" s="42"/>
       <c r="O227" s="42"/>
     </row>
     <row r="228" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="59"/>
-      <c r="B228" s="133"/>
-      <c r="C228" s="133"/>
-      <c r="D228" s="133"/>
-      <c r="E228" s="133"/>
-      <c r="F228" s="133"/>
-      <c r="G228" s="133"/>
-      <c r="H228" s="133"/>
-      <c r="J228" s="58"/>
+      <c r="A228" s="57"/>
+      <c r="B228" s="136"/>
+      <c r="C228" s="136"/>
+      <c r="D228" s="136"/>
+      <c r="E228" s="136"/>
+      <c r="F228" s="136"/>
+      <c r="G228" s="136"/>
+      <c r="H228" s="136"/>
+      <c r="J228" s="56"/>
       <c r="L228" s="42"/>
       <c r="M228" s="42"/>
       <c r="N228" s="42"/>
       <c r="O228" s="42"/>
     </row>
     <row r="229" spans="1:23" s="16" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="59"/>
-      <c r="B229" s="58"/>
+      <c r="A229" s="57"/>
+      <c r="B229" s="56"/>
       <c r="D229" s="42"/>
       <c r="E229" s="42"/>
       <c r="F229" s="42"/>
       <c r="G229" s="42"/>
-      <c r="H229" s="57"/>
-      <c r="J229" s="58"/>
+      <c r="H229" s="55"/>
+      <c r="J229" s="56"/>
       <c r="L229" s="42"/>
       <c r="M229" s="42"/>
       <c r="N229" s="42"/>
       <c r="O229" s="42"/>
     </row>
     <row r="230" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="58">
+      <c r="A230" s="120">
         <v>3.2</v>
       </c>
-      <c r="B230" s="58" t="s">
+      <c r="B230" s="56" t="s">
         <v>223</v>
       </c>
       <c r="D230" s="42"/>
       <c r="E230" s="42"/>
       <c r="F230" s="42"/>
       <c r="G230" s="42"/>
-      <c r="H230" s="57"/>
-      <c r="J230" s="58"/>
+      <c r="H230" s="55"/>
+      <c r="J230" s="56"/>
       <c r="L230" s="42"/>
       <c r="M230" s="42"/>
       <c r="N230" s="42"/>
       <c r="O230" s="42"/>
     </row>
     <row r="231" spans="1:23" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
-      <c r="B231" s="133" t="s">
+      <c r="A231" s="57"/>
+      <c r="B231" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="C231" s="133"/>
-      <c r="D231" s="133"/>
-      <c r="E231" s="133"/>
-      <c r="F231" s="133"/>
-      <c r="G231" s="133"/>
-      <c r="H231" s="133"/>
-      <c r="J231" s="58"/>
+      <c r="C231" s="136"/>
+      <c r="D231" s="136"/>
+      <c r="E231" s="136"/>
+      <c r="F231" s="136"/>
+      <c r="G231" s="136"/>
+      <c r="H231" s="136"/>
+      <c r="J231" s="56"/>
       <c r="L231" s="42"/>
       <c r="M231" s="42"/>
       <c r="N231" s="42"/>
       <c r="O231" s="42"/>
     </row>
     <row r="232" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="59"/>
-      <c r="B232" s="133"/>
-      <c r="C232" s="133"/>
-      <c r="D232" s="133"/>
-      <c r="E232" s="133"/>
-      <c r="F232" s="133"/>
-      <c r="G232" s="133"/>
-      <c r="H232" s="133"/>
-      <c r="J232" s="58" t="s">
+      <c r="A232" s="57"/>
+      <c r="B232" s="136"/>
+      <c r="C232" s="136"/>
+      <c r="D232" s="136"/>
+      <c r="E232" s="136"/>
+      <c r="F232" s="136"/>
+      <c r="G232" s="136"/>
+      <c r="H232" s="136"/>
+      <c r="J232" s="56" t="s">
         <v>215</v>
       </c>
       <c r="L232" s="42"/>
       <c r="M232" s="42"/>
       <c r="N232" s="42"/>
       <c r="O232" s="42"/>
-      <c r="P232" s="58"/>
+      <c r="P232" s="56"/>
     </row>
     <row r="233" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="33" t="s">
+      <c r="A233" s="121" t="s">
         <v>15</v>
       </c>
       <c r="B233" s="25" t="s">
@@ -6225,7 +6258,7 @@
       <c r="E233" s="42"/>
       <c r="F233" s="42"/>
       <c r="G233" s="42"/>
-      <c r="H233" s="57"/>
+      <c r="H233" s="55"/>
       <c r="J233" s="16" t="s">
         <v>213</v>
       </c>
@@ -6233,10 +6266,10 @@
       <c r="M233" s="42"/>
       <c r="N233" s="42"/>
       <c r="O233" s="42"/>
-      <c r="P233" s="66"/>
+      <c r="P233" s="61"/>
     </row>
     <row r="234" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="33" t="s">
+      <c r="A234" s="121" t="s">
         <v>15</v>
       </c>
       <c r="B234" s="25" t="s">
@@ -6246,102 +6279,102 @@
       <c r="E234" s="42"/>
       <c r="F234" s="42"/>
       <c r="G234" s="42"/>
-      <c r="H234" s="57"/>
-      <c r="J234" s="65" t="s">
+      <c r="H234" s="55"/>
+      <c r="J234" s="60" t="s">
         <v>214</v>
       </c>
       <c r="L234" s="42"/>
       <c r="M234" s="42"/>
       <c r="N234" s="42"/>
       <c r="O234" s="42"/>
-      <c r="P234" s="66"/>
+      <c r="P234" s="61"/>
     </row>
     <row r="235" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="33"/>
+      <c r="A235" s="121"/>
       <c r="B235" s="25"/>
       <c r="D235" s="42"/>
       <c r="E235" s="42"/>
       <c r="F235" s="42"/>
       <c r="G235" s="42"/>
-      <c r="H235" s="57"/>
-      <c r="J235" s="65" t="s">
+      <c r="H235" s="55"/>
+      <c r="J235" s="60" t="s">
         <v>216</v>
       </c>
       <c r="L235" s="42"/>
       <c r="M235" s="42"/>
       <c r="N235" s="42"/>
       <c r="O235" s="42"/>
-      <c r="P235" s="66"/>
+      <c r="P235" s="61"/>
     </row>
     <row r="236" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
+      <c r="A236" s="121"/>
       <c r="B236" s="25"/>
       <c r="D236" s="42"/>
       <c r="E236" s="42"/>
       <c r="F236" s="42"/>
       <c r="G236" s="42"/>
-      <c r="H236" s="57"/>
-      <c r="J236" s="65"/>
+      <c r="H236" s="55"/>
+      <c r="J236" s="60"/>
       <c r="L236" s="42"/>
       <c r="M236" s="42"/>
       <c r="N236" s="42"/>
       <c r="O236" s="42"/>
-      <c r="P236" s="66"/>
+      <c r="P236" s="61"/>
     </row>
     <row r="237" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="59"/>
-      <c r="B237" s="58"/>
+      <c r="A237" s="57"/>
+      <c r="B237" s="56"/>
       <c r="D237" s="42"/>
       <c r="E237" s="42"/>
       <c r="F237" s="42"/>
       <c r="G237" s="42"/>
-      <c r="H237" s="57"/>
-      <c r="J237" s="58"/>
+      <c r="H237" s="55"/>
+      <c r="J237" s="56"/>
       <c r="L237" s="42"/>
       <c r="M237" s="42"/>
       <c r="N237" s="42"/>
       <c r="O237" s="42"/>
     </row>
     <row r="238" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="58">
+      <c r="A238" s="120">
         <v>3.3</v>
       </c>
-      <c r="B238" s="58" t="s">
+      <c r="B238" s="56" t="s">
         <v>224</v>
       </c>
       <c r="D238" s="42"/>
       <c r="E238" s="42"/>
       <c r="F238" s="42"/>
       <c r="G238" s="42"/>
-      <c r="H238" s="57"/>
+      <c r="H238" s="55"/>
       <c r="L238" s="42"/>
       <c r="M238" s="42"/>
       <c r="N238" s="42"/>
       <c r="O238" s="42"/>
     </row>
     <row r="239" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="58"/>
-      <c r="B239" s="131" t="s">
+      <c r="A239" s="120"/>
+      <c r="B239" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="C239" s="131"/>
-      <c r="D239" s="131"/>
-      <c r="E239" s="131"/>
-      <c r="F239" s="131"/>
-      <c r="G239" s="131"/>
-      <c r="H239" s="131"/>
-      <c r="J239" s="58" t="s">
+      <c r="C239" s="135"/>
+      <c r="D239" s="135"/>
+      <c r="E239" s="135"/>
+      <c r="F239" s="135"/>
+      <c r="G239" s="135"/>
+      <c r="H239" s="135"/>
+      <c r="J239" s="56" t="s">
         <v>272</v>
       </c>
       <c r="L239" s="42"/>
       <c r="M239" s="42"/>
       <c r="N239" s="42"/>
       <c r="O239" s="42"/>
-      <c r="Q239" s="58"/>
-      <c r="W239" s="58"/>
+      <c r="Q239" s="56"/>
+      <c r="W239" s="56"/>
     </row>
     <row r="240" spans="1:23" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="105" t="str">
+      <c r="A240" s="122" t="str">
         <f t="shared" ref="A240:A249" si="6">IF(B240&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -6353,7 +6386,7 @@
       <c r="D240" s="29"/>
       <c r="E240" s="25"/>
       <c r="F240" s="29"/>
-      <c r="J240" s="104"/>
+      <c r="J240" s="99"/>
       <c r="K240" s="25"/>
       <c r="L240" s="25"/>
       <c r="M240" s="29"/>
@@ -6364,7 +6397,7 @@
       <c r="W240" s="33"/>
     </row>
     <row r="241" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="105" t="str">
+      <c r="A241" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6376,7 +6409,7 @@
       <c r="D241" s="48"/>
       <c r="E241" s="47"/>
       <c r="F241" s="48"/>
-      <c r="J241" s="73"/>
+      <c r="J241" s="68"/>
       <c r="K241" s="25"/>
       <c r="L241" s="25"/>
       <c r="M241" s="48"/>
@@ -6387,7 +6420,7 @@
       <c r="W241" s="33"/>
     </row>
     <row r="242" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="105" t="str">
+      <c r="A242" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6399,7 +6432,7 @@
       <c r="D242" s="48"/>
       <c r="E242" s="47"/>
       <c r="F242" s="48"/>
-      <c r="J242" s="73"/>
+      <c r="J242" s="68"/>
       <c r="K242" s="25"/>
       <c r="L242" s="25"/>
       <c r="M242" s="48"/>
@@ -6411,7 +6444,7 @@
       <c r="X242" s="25"/>
     </row>
     <row r="243" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="105" t="str">
+      <c r="A243" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6423,7 +6456,7 @@
       <c r="D243" s="25"/>
       <c r="E243" s="47"/>
       <c r="F243" s="47"/>
-      <c r="J243" s="73"/>
+      <c r="J243" s="68"/>
       <c r="K243" s="25"/>
       <c r="L243" s="35"/>
       <c r="M243" s="25"/>
@@ -6434,7 +6467,7 @@
       <c r="W243" s="33"/>
     </row>
     <row r="244" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="105" t="str">
+      <c r="A244" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6446,7 +6479,7 @@
       <c r="D244" s="35"/>
       <c r="E244" s="35"/>
       <c r="F244" s="35"/>
-      <c r="J244" s="73"/>
+      <c r="J244" s="68"/>
       <c r="K244" s="25"/>
       <c r="L244" s="35"/>
       <c r="M244" s="35"/>
@@ -6457,7 +6490,7 @@
       <c r="W244" s="33"/>
     </row>
     <row r="245" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="105" t="str">
+      <c r="A245" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6469,8 +6502,8 @@
       <c r="D245"/>
       <c r="E245"/>
       <c r="F245"/>
-      <c r="J245" s="73"/>
-      <c r="K245" s="74"/>
+      <c r="J245" s="68"/>
+      <c r="K245" s="69"/>
       <c r="N245"/>
       <c r="O245"/>
       <c r="Q245" s="33"/>
@@ -6479,7 +6512,7 @@
       <c r="X245" s="25"/>
     </row>
     <row r="246" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="105" t="str">
+      <c r="A246" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6491,7 +6524,7 @@
       <c r="D246"/>
       <c r="E246" s="34"/>
       <c r="F246"/>
-      <c r="J246" s="73"/>
+      <c r="J246" s="68"/>
       <c r="K246" s="25"/>
       <c r="L246"/>
       <c r="M246"/>
@@ -6502,7 +6535,7 @@
       <c r="W246" s="33"/>
     </row>
     <row r="247" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="105" t="str">
+      <c r="A247" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6510,7 +6543,7 @@
         <f t="array" ref="B247">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=$J$240,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
       </c>
-      <c r="J247" s="73"/>
+      <c r="J247" s="68"/>
       <c r="K247" s="25"/>
       <c r="L247"/>
       <c r="M247"/>
@@ -6519,7 +6552,7 @@
       <c r="W247" s="33"/>
     </row>
     <row r="248" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="105" t="str">
+      <c r="A248" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6531,7 +6564,7 @@
       <c r="D248"/>
       <c r="E248"/>
       <c r="F248"/>
-      <c r="J248" s="73"/>
+      <c r="J248" s="68"/>
       <c r="L248"/>
       <c r="M248"/>
       <c r="N248"/>
@@ -6540,7 +6573,7 @@
       <c r="W248" s="33"/>
     </row>
     <row r="249" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="105" t="str">
+      <c r="A249" s="122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6552,43 +6585,44 @@
       <c r="D249"/>
       <c r="E249"/>
       <c r="F249"/>
-      <c r="J249" s="73"/>
-      <c r="K249" s="74"/>
+      <c r="J249" s="68"/>
+      <c r="K249" s="69"/>
       <c r="Q249" s="33"/>
       <c r="W249" s="33"/>
     </row>
     <row r="250" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="104"/>
       <c r="Q250" s="33"/>
     </row>
     <row r="251" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="58">
+      <c r="A251" s="120">
         <v>3.4</v>
       </c>
-      <c r="B251" s="58" t="s">
+      <c r="B251" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="58"/>
-      <c r="B252" s="129" t="s">
+      <c r="A252" s="120"/>
+      <c r="B252" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C252" s="129"/>
-      <c r="D252" s="129"/>
-      <c r="E252" s="129"/>
-      <c r="F252" s="129"/>
-      <c r="G252" s="129"/>
-      <c r="H252" s="129"/>
+      <c r="C252" s="126"/>
+      <c r="D252" s="126"/>
+      <c r="E252" s="126"/>
+      <c r="F252" s="126"/>
+      <c r="G252" s="126"/>
+      <c r="H252" s="126"/>
       <c r="J252" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="58"/>
-      <c r="B253" s="77" t="s">
+      <c r="A253" s="120"/>
+      <c r="B253" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E253" s="62" t="s">
+      <c r="E253" s="59" t="s">
         <v>211</v>
       </c>
       <c r="J253" s="1" t="s">
@@ -6605,7 +6639,7 @@
       <c r="E254" s="16"/>
     </row>
     <row r="255" spans="1:24" s="25" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255"/>
+      <c r="A255" s="12"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
       <c r="D255" s="42"/>
@@ -6617,46 +6651,47 @@
       <c r="Q255"/>
     </row>
     <row r="256" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="59" t="s">
+      <c r="A256" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B256" s="58" t="s">
+      <c r="B256" s="56" t="s">
         <v>137</v>
       </c>
       <c r="D256" s="42"/>
       <c r="E256" s="42"/>
       <c r="F256" s="42"/>
       <c r="G256" s="42"/>
-      <c r="H256" s="57"/>
-      <c r="J256" s="58"/>
+      <c r="H256" s="55"/>
+      <c r="J256" s="56"/>
       <c r="L256" s="42"/>
       <c r="M256" s="42"/>
       <c r="N256"/>
       <c r="O256" s="42"/>
     </row>
     <row r="257" spans="1:19" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="131" t="s">
+      <c r="A257" s="104"/>
+      <c r="B257" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="C257" s="131"/>
-      <c r="D257" s="131"/>
-      <c r="E257" s="131"/>
-      <c r="F257" s="131"/>
-      <c r="G257" s="131"/>
-      <c r="H257" s="131"/>
-      <c r="J257" s="58"/>
-      <c r="K257" s="60"/>
+      <c r="C257" s="135"/>
+      <c r="D257" s="135"/>
+      <c r="E257" s="135"/>
+      <c r="F257" s="135"/>
+      <c r="G257" s="135"/>
+      <c r="H257" s="135"/>
+      <c r="J257" s="56"/>
+      <c r="K257" s="58"/>
     </row>
     <row r="258" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="76" t="s">
+      <c r="B258" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C258" s="76"/>
-      <c r="D258" s="143" t="s">
+      <c r="C258" s="71"/>
+      <c r="D258" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="E258" s="143"/>
-      <c r="F258" s="116" t="s">
+      <c r="E258" s="146"/>
+      <c r="F258" s="109" t="s">
         <v>144</v>
       </c>
       <c r="G258" s="29"/>
@@ -6664,15 +6699,15 @@
       <c r="O258" s="29"/>
     </row>
     <row r="259" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="54" t="s">
+      <c r="B259" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C259" s="54"/>
-      <c r="D259" s="130" t="s">
+      <c r="C259" s="53"/>
+      <c r="D259" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="E259" s="130"/>
-      <c r="F259" s="117">
+      <c r="E259" s="134"/>
+      <c r="F259" s="110">
         <v>10000000</v>
       </c>
       <c r="G259" s="48"/>
@@ -6681,20 +6716,20 @@
       <c r="O259" s="48"/>
     </row>
     <row r="260" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="54" t="s">
+      <c r="B260" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C260" s="54"/>
-      <c r="D260" s="130" t="s">
+      <c r="C260" s="53"/>
+      <c r="D260" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="E260" s="130"/>
-      <c r="F260" s="117">
+      <c r="E260" s="134"/>
+      <c r="F260" s="110">
         <v>20000000</v>
       </c>
       <c r="G260" s="48"/>
       <c r="N260" s="47"/>
-      <c r="O260" s="65"/>
+      <c r="O260" s="60"/>
       <c r="P260" s="25"/>
       <c r="Q260" s="29"/>
       <c r="R260" s="25"/>
@@ -6714,7 +6749,7 @@
       <c r="L261" s="35"/>
       <c r="M261" s="25"/>
       <c r="N261" s="47"/>
-      <c r="O261" s="65"/>
+      <c r="O261" s="60"/>
       <c r="P261" s="25"/>
       <c r="Q261" s="48"/>
       <c r="R261" s="47"/>
@@ -6733,97 +6768,97 @@
       <c r="L262" s="35"/>
       <c r="M262" s="35"/>
       <c r="N262" s="35"/>
-      <c r="O262" s="65"/>
+      <c r="O262" s="60"/>
       <c r="P262" s="25"/>
       <c r="Q262" s="48"/>
       <c r="R262" s="47"/>
       <c r="S262" s="48"/>
     </row>
     <row r="263" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="59" t="s">
+      <c r="A263" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B263" s="58" t="s">
+      <c r="B263" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C263" s="60"/>
-      <c r="H263" s="57"/>
-      <c r="J263" s="58"/>
-      <c r="K263" s="60"/>
-      <c r="O263" s="65"/>
+      <c r="C263" s="58"/>
+      <c r="H263" s="55"/>
+      <c r="J263" s="56"/>
+      <c r="K263" s="58"/>
+      <c r="O263" s="60"/>
       <c r="P263" s="35"/>
       <c r="Q263" s="25"/>
       <c r="R263" s="47"/>
       <c r="S263" s="47"/>
     </row>
     <row r="264" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="133" t="s">
+      <c r="A264" s="77"/>
+      <c r="B264" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="C264" s="133"/>
-      <c r="D264" s="133"/>
-      <c r="E264" s="133"/>
-      <c r="F264" s="133"/>
-      <c r="G264" s="133"/>
-      <c r="H264" s="133"/>
-      <c r="O264" s="65"/>
+      <c r="C264" s="136"/>
+      <c r="D264" s="136"/>
+      <c r="E264" s="136"/>
+      <c r="F264" s="136"/>
+      <c r="G264" s="136"/>
+      <c r="H264" s="136"/>
+      <c r="O264" s="60"/>
       <c r="P264" s="35"/>
       <c r="Q264" s="35"/>
       <c r="R264" s="35"/>
       <c r="S264" s="35"/>
     </row>
     <row r="265" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="133"/>
-      <c r="C265" s="133"/>
-      <c r="D265" s="133"/>
-      <c r="E265" s="133"/>
-      <c r="F265" s="133"/>
-      <c r="G265" s="133"/>
-      <c r="H265" s="133"/>
-      <c r="O265" s="65"/>
+      <c r="A265" s="77"/>
+      <c r="B265" s="136"/>
+      <c r="C265" s="136"/>
+      <c r="D265" s="136"/>
+      <c r="E265" s="136"/>
+      <c r="F265" s="136"/>
+      <c r="G265" s="136"/>
+      <c r="H265" s="136"/>
+      <c r="O265" s="60"/>
     </row>
     <row r="266" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="133"/>
-      <c r="C266" s="133"/>
-      <c r="D266" s="133"/>
-      <c r="E266" s="133"/>
-      <c r="F266" s="133"/>
-      <c r="G266" s="133"/>
-      <c r="H266" s="133"/>
-      <c r="O266" s="65"/>
+      <c r="A266" s="77"/>
+      <c r="B266" s="136"/>
+      <c r="C266" s="136"/>
+      <c r="D266" s="136"/>
+      <c r="E266" s="136"/>
+      <c r="F266" s="136"/>
+      <c r="G266" s="136"/>
+      <c r="H266" s="136"/>
+      <c r="O266" s="60"/>
       <c r="R266" s="34"/>
     </row>
     <row r="267" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="133"/>
-      <c r="C267" s="133"/>
-      <c r="D267" s="133"/>
-      <c r="E267" s="133"/>
-      <c r="F267" s="133"/>
-      <c r="G267" s="133"/>
-      <c r="H267" s="133"/>
-      <c r="O267" s="65"/>
+      <c r="A267" s="77"/>
+      <c r="B267" s="136"/>
+      <c r="C267" s="136"/>
+      <c r="D267" s="136"/>
+      <c r="E267" s="136"/>
+      <c r="F267" s="136"/>
+      <c r="G267" s="136"/>
+      <c r="H267" s="136"/>
+      <c r="O267" s="60"/>
       <c r="P267" s="16"/>
       <c r="Q267" s="16"/>
       <c r="R267" s="16"/>
       <c r="S267" s="16"/>
     </row>
     <row r="268" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="59" t="s">
+      <c r="A268" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B268" s="58" t="s">
+      <c r="B268" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D268" s="42"/>
       <c r="E268" s="42"/>
       <c r="F268" s="42"/>
       <c r="G268" s="42"/>
-      <c r="H268" s="57"/>
-      <c r="J268" s="58"/>
+      <c r="H268" s="55"/>
+      <c r="J268" s="56"/>
       <c r="L268" s="42"/>
       <c r="M268" s="42"/>
       <c r="N268" s="42"/>
@@ -6848,160 +6883,160 @@
       <c r="O269" s="42"/>
     </row>
     <row r="270" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="133" t="s">
+      <c r="B270" s="136" t="s">
         <v>73</v>
       </c>
-      <c r="C270" s="133"/>
-      <c r="D270" s="133"/>
-      <c r="E270" s="133"/>
-      <c r="F270" s="133"/>
-      <c r="G270" s="133"/>
-      <c r="H270" s="133"/>
+      <c r="C270" s="136"/>
+      <c r="D270" s="136"/>
+      <c r="E270" s="136"/>
+      <c r="F270" s="136"/>
+      <c r="G270" s="136"/>
+      <c r="H270" s="136"/>
     </row>
     <row r="271" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="133"/>
-      <c r="C271" s="133"/>
-      <c r="D271" s="133"/>
-      <c r="E271" s="133"/>
-      <c r="F271" s="133"/>
-      <c r="G271" s="133"/>
-      <c r="H271" s="133"/>
+      <c r="B271" s="136"/>
+      <c r="C271" s="136"/>
+      <c r="D271" s="136"/>
+      <c r="E271" s="136"/>
+      <c r="F271" s="136"/>
+      <c r="G271" s="136"/>
+      <c r="H271" s="136"/>
     </row>
     <row r="272" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="126" t="s">
+      <c r="B272" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C272" s="132"/>
+      <c r="D272" s="133"/>
+      <c r="E272" s="133"/>
+      <c r="F272" s="133"/>
+      <c r="G272" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="C272" s="126"/>
-      <c r="D272" s="127"/>
-      <c r="E272" s="127"/>
-      <c r="F272" s="127"/>
-      <c r="G272" s="126" t="s">
+      <c r="H272" s="25"/>
+      <c r="K272" s="56"/>
+      <c r="L272" s="56"/>
+      <c r="M272" s="56"/>
+      <c r="N272" s="107"/>
+      <c r="O272" s="107"/>
+    </row>
+    <row r="273" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="132"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="132"/>
+      <c r="E273" s="132"/>
+      <c r="F273" s="132"/>
+      <c r="G273" s="132"/>
+      <c r="H273" s="25"/>
+      <c r="K273" s="56"/>
+      <c r="L273" s="56"/>
+      <c r="M273" s="56"/>
+      <c r="N273" s="107"/>
+      <c r="O273" s="107"/>
+    </row>
+    <row r="274" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="131"/>
+      <c r="C274" s="131"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="112"/>
+      <c r="H274" s="25"/>
+      <c r="K274" s="56"/>
+      <c r="L274" s="56"/>
+      <c r="M274" s="56"/>
+      <c r="N274" s="107"/>
+      <c r="O274" s="107"/>
+    </row>
+    <row r="275" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="131"/>
+      <c r="C275" s="131"/>
+      <c r="D275" s="111"/>
+      <c r="E275" s="111"/>
+      <c r="F275" s="111"/>
+      <c r="G275" s="112"/>
+      <c r="H275" s="25"/>
+      <c r="K275" s="56"/>
+      <c r="L275" s="56"/>
+      <c r="M275" s="56"/>
+      <c r="N275" s="107"/>
+      <c r="O275" s="107"/>
+    </row>
+    <row r="276" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="H272" s="25"/>
-      <c r="K272" s="58"/>
-      <c r="L272" s="58"/>
-      <c r="M272" s="58"/>
-      <c r="N272" s="114"/>
-      <c r="O272" s="114"/>
-    </row>
-    <row r="273" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="126"/>
-      <c r="C273" s="126"/>
-      <c r="D273" s="128"/>
-      <c r="E273" s="128"/>
-      <c r="F273" s="128"/>
-      <c r="G273" s="126"/>
-      <c r="H273" s="25"/>
-      <c r="K273" s="58"/>
-      <c r="L273" s="58"/>
-      <c r="M273" s="58"/>
-      <c r="N273" s="114"/>
-      <c r="O273" s="114"/>
-    </row>
-    <row r="274" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="125"/>
-      <c r="C274" s="125"/>
-      <c r="D274" s="118"/>
-      <c r="E274" s="118"/>
-      <c r="F274" s="118"/>
-      <c r="G274" s="119"/>
-      <c r="H274" s="25"/>
-      <c r="K274" s="58"/>
-      <c r="L274" s="58"/>
-      <c r="M274" s="58"/>
-      <c r="N274" s="114"/>
-      <c r="O274" s="114"/>
-    </row>
-    <row r="275" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="125"/>
-      <c r="C275" s="125"/>
-      <c r="D275" s="118"/>
-      <c r="E275" s="118"/>
-      <c r="F275" s="118"/>
-      <c r="G275" s="119"/>
-      <c r="H275" s="25"/>
-      <c r="K275" s="58"/>
-      <c r="L275" s="58"/>
-      <c r="M275" s="58"/>
-      <c r="N275" s="114"/>
-      <c r="O275" s="114"/>
-    </row>
-    <row r="276" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="125" t="s">
+      <c r="C276" s="131"/>
+      <c r="D276" s="113"/>
+      <c r="E276" s="111"/>
+      <c r="F276" s="111"/>
+      <c r="G276" s="112"/>
+      <c r="H276" s="25"/>
+      <c r="K276" s="56"/>
+      <c r="L276" s="56"/>
+      <c r="M276" s="56"/>
+      <c r="N276" s="107"/>
+      <c r="O276" s="107"/>
+    </row>
+    <row r="277" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="128" t="s">
         <v>281</v>
       </c>
-      <c r="C276" s="125"/>
-      <c r="D276" s="120"/>
-      <c r="E276" s="118"/>
-      <c r="F276" s="118"/>
-      <c r="G276" s="119"/>
-      <c r="H276" s="25"/>
-      <c r="K276" s="58"/>
-      <c r="L276" s="58"/>
-      <c r="M276" s="58"/>
-      <c r="N276" s="114"/>
-      <c r="O276" s="114"/>
-    </row>
-    <row r="277" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="122" t="s">
+      <c r="C277" s="129"/>
+      <c r="D277" s="129"/>
+      <c r="E277" s="129"/>
+      <c r="F277" s="130"/>
+      <c r="G277" s="112"/>
+      <c r="H277" s="25"/>
+      <c r="K277" s="56"/>
+      <c r="L277" s="56"/>
+      <c r="M277" s="56"/>
+      <c r="N277" s="107"/>
+      <c r="O277" s="107"/>
+    </row>
+    <row r="278" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="C277" s="123"/>
-      <c r="D277" s="123"/>
-      <c r="E277" s="123"/>
-      <c r="F277" s="124"/>
-      <c r="G277" s="119"/>
-      <c r="H277" s="25"/>
-      <c r="K277" s="58"/>
-      <c r="L277" s="58"/>
-      <c r="M277" s="58"/>
-      <c r="N277" s="114"/>
-      <c r="O277" s="114"/>
-    </row>
-    <row r="278" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="122" t="s">
-        <v>283</v>
-      </c>
-      <c r="C278" s="123"/>
-      <c r="D278" s="123"/>
-      <c r="E278" s="123"/>
-      <c r="F278" s="124"/>
-      <c r="G278" s="119"/>
+      <c r="C278" s="129"/>
+      <c r="D278" s="129"/>
+      <c r="E278" s="129"/>
+      <c r="F278" s="130"/>
+      <c r="G278" s="112"/>
       <c r="H278" s="25"/>
-      <c r="K278" s="58"/>
-      <c r="L278" s="58"/>
-      <c r="M278" s="58"/>
-      <c r="N278" s="114"/>
-      <c r="O278" s="114"/>
+      <c r="K278" s="56"/>
+      <c r="L278" s="56"/>
+      <c r="M278" s="56"/>
+      <c r="N278" s="107"/>
+      <c r="O278" s="107"/>
     </row>
     <row r="279" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="112"/>
-      <c r="C279" s="58"/>
-      <c r="D279" s="58"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="58"/>
-      <c r="G279" s="113"/>
+      <c r="B279" s="105"/>
+      <c r="C279" s="56"/>
+      <c r="D279" s="56"/>
+      <c r="E279" s="56"/>
+      <c r="F279" s="56"/>
+      <c r="G279" s="106"/>
       <c r="H279" s="25"/>
-      <c r="K279" s="58"/>
-      <c r="L279" s="58"/>
-      <c r="M279" s="58"/>
-      <c r="N279" s="114"/>
-      <c r="O279" s="114"/>
+      <c r="K279" s="56"/>
+      <c r="L279" s="56"/>
+      <c r="M279" s="56"/>
+      <c r="N279" s="107"/>
+      <c r="O279" s="107"/>
     </row>
     <row r="280" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="112"/>
-      <c r="C280" s="58"/>
-      <c r="D280" s="58"/>
-      <c r="E280" s="58"/>
-      <c r="F280" s="58"/>
-      <c r="G280" s="113"/>
+      <c r="B280" s="105"/>
+      <c r="C280" s="56"/>
+      <c r="D280" s="56"/>
+      <c r="E280" s="56"/>
+      <c r="F280" s="56"/>
+      <c r="G280" s="106"/>
       <c r="H280" s="25"/>
-      <c r="K280" s="58"/>
-      <c r="L280" s="58"/>
-      <c r="M280" s="58"/>
-      <c r="N280" s="114"/>
-      <c r="O280" s="114"/>
+      <c r="K280" s="56"/>
+      <c r="L280" s="56"/>
+      <c r="M280" s="56"/>
+      <c r="N280" s="107"/>
+      <c r="O280" s="107"/>
     </row>
     <row r="281" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="46" t="s">
@@ -7015,30 +7050,30 @@
       <c r="E281" s="25"/>
       <c r="F281" s="47"/>
       <c r="G281" s="48"/>
-      <c r="O281" s="65"/>
+      <c r="O281" s="60"/>
     </row>
     <row r="282" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="133" t="s">
+      <c r="B282" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C282" s="133"/>
-      <c r="D282" s="133"/>
-      <c r="E282" s="133"/>
-      <c r="F282" s="133"/>
-      <c r="G282" s="133"/>
-      <c r="H282" s="133"/>
-      <c r="O282" s="65"/>
+      <c r="C282" s="136"/>
+      <c r="D282" s="136"/>
+      <c r="E282" s="136"/>
+      <c r="F282" s="136"/>
+      <c r="G282" s="136"/>
+      <c r="H282" s="136"/>
+      <c r="O282" s="60"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="46"/>
-      <c r="B283" s="133"/>
-      <c r="C283" s="133"/>
-      <c r="D283" s="133"/>
-      <c r="E283" s="133"/>
-      <c r="F283" s="133"/>
-      <c r="G283" s="133"/>
-      <c r="H283" s="133"/>
-      <c r="O283" s="65"/>
+      <c r="B283" s="136"/>
+      <c r="C283" s="136"/>
+      <c r="D283" s="136"/>
+      <c r="E283" s="136"/>
+      <c r="F283" s="136"/>
+      <c r="G283" s="136"/>
+      <c r="H283" s="136"/>
+      <c r="O283" s="60"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="46"/>
@@ -7054,8 +7089,8 @@
       <c r="F284" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="G284" s="70"/>
-      <c r="H284" s="70"/>
+      <c r="G284" s="65"/>
+      <c r="H284" s="65"/>
     </row>
     <row r="285" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
@@ -7071,7 +7106,7 @@
         <v>147</v>
       </c>
       <c r="G285" s="49"/>
-      <c r="J285" s="58"/>
+      <c r="J285" s="56"/>
       <c r="K285" s="16"/>
       <c r="L285" s="42"/>
       <c r="M285" s="42"/>
@@ -7139,23 +7174,23 @@
       <c r="B290" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C290" s="72"/>
-      <c r="D290" s="72"/>
-      <c r="E290" s="72"/>
-      <c r="F290" s="71"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="67"/>
+      <c r="F290" s="66"/>
       <c r="G290" s="48"/>
-      <c r="O290" s="65"/>
+      <c r="O290" s="60"/>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>268</v>
       </c>
-      <c r="C291" s="72"/>
-      <c r="D291" s="72"/>
-      <c r="E291" s="72"/>
-      <c r="F291" s="71"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="67"/>
+      <c r="E291" s="67"/>
+      <c r="F291" s="66"/>
       <c r="G291" s="48"/>
-      <c r="O291" s="65"/>
+      <c r="O291" s="60"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E292" s="50"/>
@@ -7165,13 +7200,13 @@
       <c r="N292" s="50"/>
     </row>
     <row r="293" spans="1:15" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="59" t="s">
+      <c r="A293" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B293" s="58" t="s">
+      <c r="B293" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="J293" s="58"/>
+      <c r="J293" s="56"/>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="46"/>
@@ -7205,7 +7240,9 @@
       <c r="J296" s="45"/>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B297" s="35"/>
+      <c r="B297" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="J297" s="45"/>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -7276,9 +7313,9 @@
       <c r="B309" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F309" s="115">
+      <c r="F309" s="108">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
       <c r="J309" s="45"/>
     </row>
@@ -7287,7 +7324,7 @@
       <c r="N310" s="34"/>
     </row>
     <row r="311" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="61" t="s">
+      <c r="A311" s="123" t="s">
         <v>158</v>
       </c>
       <c r="C311" s="24"/>
@@ -7296,597 +7333,597 @@
       <c r="K311" s="24"/>
     </row>
     <row r="312" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="28">
+      <c r="A312" s="124">
         <v>1</v>
       </c>
-      <c r="B312" s="138" t="s">
+      <c r="B312" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="C312" s="138"/>
-      <c r="D312" s="138"/>
-      <c r="E312" s="138"/>
-      <c r="F312" s="138"/>
-      <c r="G312" s="138"/>
-      <c r="H312" s="138"/>
+      <c r="C312" s="141"/>
+      <c r="D312" s="141"/>
+      <c r="E312" s="141"/>
+      <c r="F312" s="141"/>
+      <c r="G312" s="141"/>
+      <c r="H312" s="141"/>
     </row>
     <row r="313" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="28">
+      <c r="A313" s="124">
         <v>2</v>
       </c>
-      <c r="B313" s="138" t="s">
+      <c r="B313" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C313" s="138"/>
-      <c r="D313" s="138"/>
-      <c r="E313" s="138"/>
-      <c r="F313" s="138"/>
-      <c r="G313" s="138"/>
-      <c r="H313" s="138"/>
+      <c r="C313" s="141"/>
+      <c r="D313" s="141"/>
+      <c r="E313" s="141"/>
+      <c r="F313" s="141"/>
+      <c r="G313" s="141"/>
+      <c r="H313" s="141"/>
     </row>
     <row r="314" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="28">
+      <c r="A314" s="124">
         <v>3</v>
       </c>
-      <c r="B314" s="138" t="s">
+      <c r="B314" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C314" s="138"/>
-      <c r="D314" s="138"/>
-      <c r="E314" s="138"/>
-      <c r="F314" s="138"/>
-      <c r="G314" s="138"/>
-      <c r="H314" s="138"/>
+      <c r="C314" s="141"/>
+      <c r="D314" s="141"/>
+      <c r="E314" s="141"/>
+      <c r="F314" s="141"/>
+      <c r="G314" s="141"/>
+      <c r="H314" s="141"/>
     </row>
     <row r="315" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="28">
+      <c r="A315" s="124">
         <v>4</v>
       </c>
-      <c r="B315" s="138" t="s">
+      <c r="B315" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="C315" s="138"/>
-      <c r="D315" s="138"/>
-      <c r="E315" s="138"/>
-      <c r="F315" s="138"/>
-      <c r="G315" s="138"/>
-      <c r="H315" s="138"/>
+      <c r="C315" s="141"/>
+      <c r="D315" s="141"/>
+      <c r="E315" s="141"/>
+      <c r="F315" s="141"/>
+      <c r="G315" s="141"/>
+      <c r="H315" s="141"/>
     </row>
     <row r="316" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="28">
+      <c r="A316" s="124">
         <v>5</v>
       </c>
-      <c r="B316" s="138" t="s">
+      <c r="B316" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="C316" s="138"/>
-      <c r="D316" s="138"/>
-      <c r="E316" s="138"/>
-      <c r="F316" s="138"/>
-      <c r="G316" s="138"/>
-      <c r="H316" s="138"/>
+      <c r="C316" s="141"/>
+      <c r="D316" s="141"/>
+      <c r="E316" s="141"/>
+      <c r="F316" s="141"/>
+      <c r="G316" s="141"/>
+      <c r="H316" s="141"/>
     </row>
     <row r="317" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="28"/>
-      <c r="B317" s="138" t="s">
+      <c r="A317" s="124"/>
+      <c r="B317" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="C317" s="138"/>
-      <c r="D317" s="138"/>
-      <c r="E317" s="138"/>
-      <c r="F317" s="138"/>
-      <c r="G317" s="138"/>
-      <c r="H317" s="138"/>
+      <c r="C317" s="141"/>
+      <c r="D317" s="141"/>
+      <c r="E317" s="141"/>
+      <c r="F317" s="141"/>
+      <c r="G317" s="141"/>
+      <c r="H317" s="141"/>
     </row>
     <row r="318" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="28"/>
-      <c r="B318" s="138" t="s">
+      <c r="A318" s="124"/>
+      <c r="B318" s="141" t="s">
         <v>168</v>
       </c>
-      <c r="C318" s="138"/>
-      <c r="D318" s="138"/>
-      <c r="E318" s="138"/>
-      <c r="F318" s="138"/>
-      <c r="G318" s="138"/>
-      <c r="H318" s="138"/>
+      <c r="C318" s="141"/>
+      <c r="D318" s="141"/>
+      <c r="E318" s="141"/>
+      <c r="F318" s="141"/>
+      <c r="G318" s="141"/>
+      <c r="H318" s="141"/>
     </row>
     <row r="319" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="28"/>
-      <c r="B319" s="138" t="s">
+      <c r="A319" s="124"/>
+      <c r="B319" s="141" t="s">
         <v>169</v>
       </c>
-      <c r="C319" s="138"/>
-      <c r="D319" s="138"/>
-      <c r="E319" s="138"/>
-      <c r="F319" s="138"/>
-      <c r="G319" s="138"/>
-      <c r="H319" s="138"/>
+      <c r="C319" s="141"/>
+      <c r="D319" s="141"/>
+      <c r="E319" s="141"/>
+      <c r="F319" s="141"/>
+      <c r="G319" s="141"/>
+      <c r="H319" s="141"/>
     </row>
     <row r="320" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="28">
+      <c r="A320" s="124">
         <v>6</v>
       </c>
-      <c r="B320" s="138" t="s">
+      <c r="B320" s="141" t="s">
         <v>170</v>
       </c>
-      <c r="C320" s="138"/>
-      <c r="D320" s="138"/>
-      <c r="E320" s="138"/>
-      <c r="F320" s="138"/>
-      <c r="G320" s="138"/>
-      <c r="H320" s="138"/>
+      <c r="C320" s="141"/>
+      <c r="D320" s="141"/>
+      <c r="E320" s="141"/>
+      <c r="F320" s="141"/>
+      <c r="G320" s="141"/>
+      <c r="H320" s="141"/>
     </row>
     <row r="321" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="28"/>
-      <c r="B321" s="138" t="s">
+      <c r="A321" s="124"/>
+      <c r="B321" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="C321" s="138"/>
-      <c r="D321" s="138"/>
-      <c r="E321" s="138"/>
-      <c r="F321" s="138"/>
-      <c r="G321" s="138"/>
-      <c r="H321" s="138"/>
+      <c r="C321" s="141"/>
+      <c r="D321" s="141"/>
+      <c r="E321" s="141"/>
+      <c r="F321" s="141"/>
+      <c r="G321" s="141"/>
+      <c r="H321" s="141"/>
     </row>
     <row r="322" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="28"/>
-      <c r="B322" s="138" t="s">
+      <c r="A322" s="124"/>
+      <c r="B322" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="C322" s="138"/>
-      <c r="D322" s="138"/>
-      <c r="E322" s="138"/>
-      <c r="F322" s="138"/>
-      <c r="G322" s="138"/>
-      <c r="H322" s="138"/>
+      <c r="C322" s="141"/>
+      <c r="D322" s="141"/>
+      <c r="E322" s="141"/>
+      <c r="F322" s="141"/>
+      <c r="G322" s="141"/>
+      <c r="H322" s="141"/>
     </row>
     <row r="323" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="28">
+      <c r="A323" s="124">
         <v>7</v>
       </c>
-      <c r="B323" s="138" t="s">
+      <c r="B323" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="C323" s="138"/>
-      <c r="D323" s="138"/>
-      <c r="E323" s="138"/>
-      <c r="F323" s="138"/>
-      <c r="G323" s="138"/>
-      <c r="H323" s="138"/>
+      <c r="C323" s="141"/>
+      <c r="D323" s="141"/>
+      <c r="E323" s="141"/>
+      <c r="F323" s="141"/>
+      <c r="G323" s="141"/>
+      <c r="H323" s="141"/>
     </row>
     <row r="324" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="28">
+      <c r="A324" s="124">
         <v>8</v>
       </c>
-      <c r="B324" s="138" t="s">
+      <c r="B324" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="C324" s="138"/>
-      <c r="D324" s="138"/>
-      <c r="E324" s="138"/>
-      <c r="F324" s="138"/>
-      <c r="G324" s="138"/>
-      <c r="H324" s="138"/>
+      <c r="C324" s="141"/>
+      <c r="D324" s="141"/>
+      <c r="E324" s="141"/>
+      <c r="F324" s="141"/>
+      <c r="G324" s="141"/>
+      <c r="H324" s="141"/>
     </row>
     <row r="325" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="28"/>
-      <c r="B325" s="138" t="s">
+      <c r="A325" s="124"/>
+      <c r="B325" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="C325" s="138"/>
-      <c r="D325" s="138"/>
-      <c r="E325" s="138"/>
-      <c r="F325" s="138"/>
-      <c r="G325" s="138"/>
-      <c r="H325" s="138"/>
+      <c r="C325" s="141"/>
+      <c r="D325" s="141"/>
+      <c r="E325" s="141"/>
+      <c r="F325" s="141"/>
+      <c r="G325" s="141"/>
+      <c r="H325" s="141"/>
     </row>
     <row r="326" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="28"/>
-      <c r="B326" s="138" t="s">
+      <c r="A326" s="124"/>
+      <c r="B326" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="C326" s="138"/>
-      <c r="D326" s="138"/>
-      <c r="E326" s="138"/>
-      <c r="F326" s="138"/>
-      <c r="G326" s="138"/>
-      <c r="H326" s="138"/>
+      <c r="C326" s="141"/>
+      <c r="D326" s="141"/>
+      <c r="E326" s="141"/>
+      <c r="F326" s="141"/>
+      <c r="G326" s="141"/>
+      <c r="H326" s="141"/>
     </row>
     <row r="327" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="28"/>
-      <c r="B327" s="138" t="s">
+      <c r="A327" s="124"/>
+      <c r="B327" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="C327" s="138"/>
-      <c r="D327" s="138"/>
-      <c r="E327" s="138"/>
-      <c r="F327" s="138"/>
-      <c r="G327" s="138"/>
-      <c r="H327" s="138"/>
+      <c r="C327" s="141"/>
+      <c r="D327" s="141"/>
+      <c r="E327" s="141"/>
+      <c r="F327" s="141"/>
+      <c r="G327" s="141"/>
+      <c r="H327" s="141"/>
     </row>
     <row r="328" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="28"/>
-      <c r="B328" s="138" t="s">
+      <c r="A328" s="124"/>
+      <c r="B328" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="C328" s="138"/>
-      <c r="D328" s="138"/>
-      <c r="E328" s="138"/>
-      <c r="F328" s="138"/>
-      <c r="G328" s="138"/>
-      <c r="H328" s="138"/>
+      <c r="C328" s="141"/>
+      <c r="D328" s="141"/>
+      <c r="E328" s="141"/>
+      <c r="F328" s="141"/>
+      <c r="G328" s="141"/>
+      <c r="H328" s="141"/>
     </row>
     <row r="329" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="28"/>
-      <c r="B329" s="138" t="s">
+      <c r="A329" s="124"/>
+      <c r="B329" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="C329" s="138"/>
-      <c r="D329" s="138"/>
-      <c r="E329" s="138"/>
-      <c r="F329" s="138"/>
-      <c r="G329" s="138"/>
-      <c r="H329" s="138"/>
+      <c r="C329" s="141"/>
+      <c r="D329" s="141"/>
+      <c r="E329" s="141"/>
+      <c r="F329" s="141"/>
+      <c r="G329" s="141"/>
+      <c r="H329" s="141"/>
     </row>
     <row r="330" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="28"/>
-      <c r="B330" s="138" t="s">
+      <c r="A330" s="124"/>
+      <c r="B330" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="C330" s="138"/>
-      <c r="D330" s="138"/>
-      <c r="E330" s="138"/>
-      <c r="F330" s="138"/>
-      <c r="G330" s="138"/>
-      <c r="H330" s="138"/>
+      <c r="C330" s="141"/>
+      <c r="D330" s="141"/>
+      <c r="E330" s="141"/>
+      <c r="F330" s="141"/>
+      <c r="G330" s="141"/>
+      <c r="H330" s="141"/>
     </row>
     <row r="331" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="28">
+      <c r="A331" s="124">
         <v>9</v>
       </c>
-      <c r="B331" s="138" t="s">
+      <c r="B331" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="C331" s="138"/>
-      <c r="D331" s="138"/>
-      <c r="E331" s="138"/>
-      <c r="F331" s="138"/>
-      <c r="G331" s="138"/>
-      <c r="H331" s="138"/>
+      <c r="C331" s="141"/>
+      <c r="D331" s="141"/>
+      <c r="E331" s="141"/>
+      <c r="F331" s="141"/>
+      <c r="G331" s="141"/>
+      <c r="H331" s="141"/>
     </row>
     <row r="332" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="28">
+      <c r="A332" s="124">
         <v>10</v>
       </c>
-      <c r="B332" s="138" t="s">
+      <c r="B332" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="C332" s="138"/>
-      <c r="D332" s="138"/>
-      <c r="E332" s="138"/>
-      <c r="F332" s="138"/>
-      <c r="G332" s="138"/>
-      <c r="H332" s="138"/>
+      <c r="C332" s="141"/>
+      <c r="D332" s="141"/>
+      <c r="E332" s="141"/>
+      <c r="F332" s="141"/>
+      <c r="G332" s="141"/>
+      <c r="H332" s="141"/>
     </row>
     <row r="333" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="28"/>
-      <c r="B333" s="138" t="s">
+      <c r="A333" s="124"/>
+      <c r="B333" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="C333" s="138"/>
-      <c r="D333" s="138"/>
-      <c r="E333" s="138"/>
-      <c r="F333" s="138"/>
-      <c r="G333" s="138"/>
-      <c r="H333" s="138"/>
+      <c r="C333" s="141"/>
+      <c r="D333" s="141"/>
+      <c r="E333" s="141"/>
+      <c r="F333" s="141"/>
+      <c r="G333" s="141"/>
+      <c r="H333" s="141"/>
     </row>
     <row r="334" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="28"/>
-      <c r="B334" s="138" t="s">
+      <c r="A334" s="124"/>
+      <c r="B334" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="C334" s="138"/>
-      <c r="D334" s="138"/>
-      <c r="E334" s="138"/>
-      <c r="F334" s="138"/>
-      <c r="G334" s="138"/>
-      <c r="H334" s="138"/>
+      <c r="C334" s="141"/>
+      <c r="D334" s="141"/>
+      <c r="E334" s="141"/>
+      <c r="F334" s="141"/>
+      <c r="G334" s="141"/>
+      <c r="H334" s="141"/>
     </row>
     <row r="335" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="28"/>
-      <c r="B335" s="138" t="s">
+      <c r="A335" s="124"/>
+      <c r="B335" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="C335" s="138"/>
-      <c r="D335" s="138"/>
-      <c r="E335" s="138"/>
-      <c r="F335" s="138"/>
-      <c r="G335" s="138"/>
-      <c r="H335" s="138"/>
+      <c r="C335" s="141"/>
+      <c r="D335" s="141"/>
+      <c r="E335" s="141"/>
+      <c r="F335" s="141"/>
+      <c r="G335" s="141"/>
+      <c r="H335" s="141"/>
     </row>
     <row r="336" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="28"/>
-      <c r="B336" s="138" t="s">
+      <c r="A336" s="124"/>
+      <c r="B336" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="C336" s="138"/>
-      <c r="D336" s="138"/>
-      <c r="E336" s="138"/>
-      <c r="F336" s="138"/>
-      <c r="G336" s="138"/>
-      <c r="H336" s="138"/>
+      <c r="C336" s="141"/>
+      <c r="D336" s="141"/>
+      <c r="E336" s="141"/>
+      <c r="F336" s="141"/>
+      <c r="G336" s="141"/>
+      <c r="H336" s="141"/>
     </row>
     <row r="337" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="28">
+      <c r="A337" s="124">
         <v>11</v>
       </c>
-      <c r="B337" s="138" t="s">
+      <c r="B337" s="141" t="s">
         <v>185</v>
       </c>
-      <c r="C337" s="138"/>
-      <c r="D337" s="138"/>
-      <c r="E337" s="138"/>
-      <c r="F337" s="138"/>
-      <c r="G337" s="138"/>
-      <c r="H337" s="138"/>
+      <c r="C337" s="141"/>
+      <c r="D337" s="141"/>
+      <c r="E337" s="141"/>
+      <c r="F337" s="141"/>
+      <c r="G337" s="141"/>
+      <c r="H337" s="141"/>
     </row>
     <row r="338" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="28"/>
-      <c r="B338" s="138" t="s">
+      <c r="A338" s="124"/>
+      <c r="B338" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="C338" s="138"/>
-      <c r="D338" s="138"/>
-      <c r="E338" s="138"/>
-      <c r="F338" s="138"/>
-      <c r="G338" s="138"/>
-      <c r="H338" s="138"/>
+      <c r="C338" s="141"/>
+      <c r="D338" s="141"/>
+      <c r="E338" s="141"/>
+      <c r="F338" s="141"/>
+      <c r="G338" s="141"/>
+      <c r="H338" s="141"/>
     </row>
     <row r="339" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="28"/>
-      <c r="B339" s="53"/>
-      <c r="C339" s="53"/>
-      <c r="D339" s="53"/>
-      <c r="E339" s="53"/>
-      <c r="F339" s="53"/>
-      <c r="G339" s="53"/>
-      <c r="H339" s="53"/>
-      <c r="J339" s="53"/>
-      <c r="K339" s="53"/>
-      <c r="L339" s="53"/>
-      <c r="M339" s="53"/>
-      <c r="N339" s="53"/>
-      <c r="O339" s="53"/>
+      <c r="A339" s="124"/>
+      <c r="B339" s="52"/>
+      <c r="C339" s="52"/>
+      <c r="D339" s="52"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
+      <c r="H339" s="52"/>
+      <c r="J339" s="52"/>
+      <c r="K339" s="52"/>
+      <c r="L339" s="52"/>
+      <c r="M339" s="52"/>
+      <c r="N339" s="52"/>
+      <c r="O339" s="52"/>
     </row>
     <row r="340" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="28"/>
-      <c r="B340" s="138" t="s">
+      <c r="A340" s="124"/>
+      <c r="B340" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="C340" s="138"/>
-      <c r="D340" s="138"/>
-      <c r="E340" s="138"/>
-      <c r="F340" s="138"/>
-      <c r="G340" s="138"/>
-      <c r="H340" s="138"/>
+      <c r="C340" s="141"/>
+      <c r="D340" s="141"/>
+      <c r="E340" s="141"/>
+      <c r="F340" s="141"/>
+      <c r="G340" s="141"/>
+      <c r="H340" s="141"/>
     </row>
     <row r="341" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="28">
+      <c r="A341" s="124">
         <v>12</v>
       </c>
-      <c r="B341" s="138" t="s">
+      <c r="B341" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C341" s="138"/>
-      <c r="D341" s="138"/>
-      <c r="E341" s="138"/>
-      <c r="F341" s="138"/>
-      <c r="G341" s="138"/>
-      <c r="H341" s="138"/>
+      <c r="C341" s="141"/>
+      <c r="D341" s="141"/>
+      <c r="E341" s="141"/>
+      <c r="F341" s="141"/>
+      <c r="G341" s="141"/>
+      <c r="H341" s="141"/>
     </row>
     <row r="342" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="28"/>
-      <c r="B342" s="138" t="s">
+      <c r="A342" s="124"/>
+      <c r="B342" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C342" s="138"/>
-      <c r="D342" s="138"/>
-      <c r="E342" s="138"/>
-      <c r="F342" s="138"/>
-      <c r="G342" s="138"/>
-      <c r="H342" s="138"/>
+      <c r="C342" s="141"/>
+      <c r="D342" s="141"/>
+      <c r="E342" s="141"/>
+      <c r="F342" s="141"/>
+      <c r="G342" s="141"/>
+      <c r="H342" s="141"/>
     </row>
     <row r="343" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="28"/>
-      <c r="B343" s="138" t="s">
+      <c r="A343" s="124"/>
+      <c r="B343" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="C343" s="138"/>
-      <c r="D343" s="138"/>
-      <c r="E343" s="138"/>
-      <c r="F343" s="138"/>
-      <c r="G343" s="138"/>
-      <c r="H343" s="138"/>
+      <c r="C343" s="141"/>
+      <c r="D343" s="141"/>
+      <c r="E343" s="141"/>
+      <c r="F343" s="141"/>
+      <c r="G343" s="141"/>
+      <c r="H343" s="141"/>
     </row>
     <row r="344" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="28"/>
-      <c r="B344" s="138" t="s">
+      <c r="A344" s="124"/>
+      <c r="B344" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="C344" s="138"/>
-      <c r="D344" s="138"/>
-      <c r="E344" s="138"/>
-      <c r="F344" s="138"/>
-      <c r="G344" s="138"/>
-      <c r="H344" s="138"/>
+      <c r="C344" s="141"/>
+      <c r="D344" s="141"/>
+      <c r="E344" s="141"/>
+      <c r="F344" s="141"/>
+      <c r="G344" s="141"/>
+      <c r="H344" s="141"/>
     </row>
     <row r="345" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="28"/>
-      <c r="B345" s="138" t="s">
+      <c r="A345" s="124"/>
+      <c r="B345" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C345" s="138"/>
-      <c r="D345" s="138"/>
-      <c r="E345" s="138"/>
-      <c r="F345" s="138"/>
-      <c r="G345" s="138"/>
-      <c r="H345" s="138"/>
+      <c r="C345" s="141"/>
+      <c r="D345" s="141"/>
+      <c r="E345" s="141"/>
+      <c r="F345" s="141"/>
+      <c r="G345" s="141"/>
+      <c r="H345" s="141"/>
     </row>
     <row r="346" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="28">
+      <c r="A346" s="124">
         <v>13</v>
       </c>
-      <c r="B346" s="138" t="s">
+      <c r="B346" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="C346" s="138"/>
-      <c r="D346" s="138"/>
-      <c r="E346" s="138"/>
-      <c r="F346" s="138"/>
-      <c r="G346" s="138"/>
-      <c r="H346" s="138"/>
+      <c r="C346" s="141"/>
+      <c r="D346" s="141"/>
+      <c r="E346" s="141"/>
+      <c r="F346" s="141"/>
+      <c r="G346" s="141"/>
+      <c r="H346" s="141"/>
     </row>
     <row r="347" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="28"/>
-      <c r="B347" s="138" t="s">
+      <c r="A347" s="124"/>
+      <c r="B347" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="C347" s="138"/>
-      <c r="D347" s="138"/>
-      <c r="E347" s="138"/>
-      <c r="F347" s="138"/>
-      <c r="G347" s="138"/>
-      <c r="H347" s="138"/>
+      <c r="C347" s="141"/>
+      <c r="D347" s="141"/>
+      <c r="E347" s="141"/>
+      <c r="F347" s="141"/>
+      <c r="G347" s="141"/>
+      <c r="H347" s="141"/>
     </row>
     <row r="348" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="28"/>
-      <c r="B348" s="138" t="s">
+      <c r="A348" s="124"/>
+      <c r="B348" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C348" s="138"/>
-      <c r="D348" s="138"/>
-      <c r="E348" s="138"/>
-      <c r="F348" s="138"/>
-      <c r="G348" s="138"/>
-      <c r="H348" s="138"/>
+      <c r="C348" s="141"/>
+      <c r="D348" s="141"/>
+      <c r="E348" s="141"/>
+      <c r="F348" s="141"/>
+      <c r="G348" s="141"/>
+      <c r="H348" s="141"/>
     </row>
     <row r="349" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="28">
+      <c r="A349" s="124">
         <v>14</v>
       </c>
-      <c r="B349" s="138" t="s">
+      <c r="B349" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C349" s="138"/>
-      <c r="D349" s="138"/>
-      <c r="E349" s="138"/>
-      <c r="F349" s="138"/>
-      <c r="G349" s="138"/>
-      <c r="H349" s="138"/>
+      <c r="C349" s="141"/>
+      <c r="D349" s="141"/>
+      <c r="E349" s="141"/>
+      <c r="F349" s="141"/>
+      <c r="G349" s="141"/>
+      <c r="H349" s="141"/>
     </row>
     <row r="350" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="28"/>
-      <c r="B350" s="138" t="s">
+      <c r="A350" s="124"/>
+      <c r="B350" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C350" s="138"/>
-      <c r="D350" s="138"/>
-      <c r="E350" s="138"/>
-      <c r="F350" s="138"/>
-      <c r="G350" s="138"/>
-      <c r="H350" s="138"/>
+      <c r="C350" s="141"/>
+      <c r="D350" s="141"/>
+      <c r="E350" s="141"/>
+      <c r="F350" s="141"/>
+      <c r="G350" s="141"/>
+      <c r="H350" s="141"/>
     </row>
     <row r="351" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="28"/>
-      <c r="B351" s="138" t="s">
+      <c r="A351" s="124"/>
+      <c r="B351" s="141" t="s">
         <v>161</v>
       </c>
-      <c r="C351" s="138"/>
-      <c r="D351" s="138"/>
-      <c r="E351" s="138"/>
-      <c r="F351" s="138"/>
-      <c r="G351" s="138"/>
-      <c r="H351" s="138"/>
+      <c r="C351" s="141"/>
+      <c r="D351" s="141"/>
+      <c r="E351" s="141"/>
+      <c r="F351" s="141"/>
+      <c r="G351" s="141"/>
+      <c r="H351" s="141"/>
     </row>
     <row r="352" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="28"/>
-      <c r="B352" s="138" t="s">
+      <c r="A352" s="124"/>
+      <c r="B352" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C352" s="138"/>
-      <c r="D352" s="138"/>
-      <c r="E352" s="138"/>
-      <c r="F352" s="138"/>
-      <c r="G352" s="138"/>
-      <c r="H352" s="138"/>
+      <c r="C352" s="141"/>
+      <c r="D352" s="141"/>
+      <c r="E352" s="141"/>
+      <c r="F352" s="141"/>
+      <c r="G352" s="141"/>
+      <c r="H352" s="141"/>
     </row>
     <row r="353" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="28"/>
-      <c r="B353" s="138" t="s">
+      <c r="A353" s="124"/>
+      <c r="B353" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="C353" s="138"/>
-      <c r="D353" s="138"/>
-      <c r="E353" s="138"/>
-      <c r="F353" s="138"/>
-      <c r="G353" s="138"/>
-      <c r="H353" s="138"/>
+      <c r="C353" s="141"/>
+      <c r="D353" s="141"/>
+      <c r="E353" s="141"/>
+      <c r="F353" s="141"/>
+      <c r="G353" s="141"/>
+      <c r="H353" s="141"/>
     </row>
     <row r="354" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="28">
+      <c r="A354" s="124">
         <v>15</v>
       </c>
-      <c r="B354" s="138" t="s">
+      <c r="B354" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="C354" s="138"/>
-      <c r="D354" s="138"/>
-      <c r="E354" s="138"/>
-      <c r="F354" s="138"/>
-      <c r="G354" s="138"/>
-      <c r="H354" s="138"/>
+      <c r="C354" s="141"/>
+      <c r="D354" s="141"/>
+      <c r="E354" s="141"/>
+      <c r="F354" s="141"/>
+      <c r="G354" s="141"/>
+      <c r="H354" s="141"/>
     </row>
     <row r="355" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="28">
+      <c r="A355" s="124">
         <v>16</v>
       </c>
-      <c r="B355" s="138" t="s">
+      <c r="B355" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="C355" s="138"/>
-      <c r="D355" s="138"/>
-      <c r="E355" s="138"/>
-      <c r="F355" s="138"/>
-      <c r="G355" s="138"/>
-      <c r="H355" s="138"/>
+      <c r="C355" s="141"/>
+      <c r="D355" s="141"/>
+      <c r="E355" s="141"/>
+      <c r="F355" s="141"/>
+      <c r="G355" s="141"/>
+      <c r="H355" s="141"/>
     </row>
     <row r="356" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="28">
+      <c r="A356" s="124">
         <v>17</v>
       </c>
-      <c r="B356" s="138" t="s">
+      <c r="B356" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="C356" s="138"/>
-      <c r="D356" s="138"/>
-      <c r="E356" s="138"/>
-      <c r="F356" s="138"/>
-      <c r="G356" s="138"/>
-      <c r="H356" s="138"/>
+      <c r="C356" s="141"/>
+      <c r="D356" s="141"/>
+      <c r="E356" s="141"/>
+      <c r="F356" s="141"/>
+      <c r="G356" s="141"/>
+      <c r="H356" s="141"/>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="52"/>
+      <c r="A357" s="125"/>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="52"/>
+      <c r="A358" s="125"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="52"/>
+      <c r="A359" s="125"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="52"/>
+      <c r="A360" s="125"/>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="52"/>
+      <c r="A361" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="96">
@@ -7900,6 +7937,8 @@
     <mergeCell ref="B270:H271"/>
     <mergeCell ref="D258:E258"/>
     <mergeCell ref="D259:E259"/>
+    <mergeCell ref="A68:H69"/>
+    <mergeCell ref="A61:H62"/>
     <mergeCell ref="L56:S59"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="L192:S192"/>
@@ -7961,14 +8000,6 @@
     <mergeCell ref="B328:H328"/>
     <mergeCell ref="B329:H329"/>
     <mergeCell ref="B312:H312"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="B257:H257"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B225:H228"/>
-    <mergeCell ref="A61:H62"/>
-    <mergeCell ref="A68:H69"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F38:H38"/>
@@ -7977,6 +8008,7 @@
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B27:G29"/>
     <mergeCell ref="B277:F277"/>
     <mergeCell ref="B278:F278"/>
     <mergeCell ref="B276:C276"/>
@@ -7986,6 +8018,11 @@
     <mergeCell ref="F272:F273"/>
     <mergeCell ref="B274:C274"/>
     <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="B257:H257"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B225:H228"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -8066,21 +8103,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8096,24 +8133,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8136,46 +8173,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="190"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="187" t="s">
+      <c r="F15" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="F16" s="191" t="s">
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="F16" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8189,43 +8226,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="189" t="s">
+      <c r="A21" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="188" t="s">
+      <c r="A22" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="188"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8244,17 +8281,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="186" t="s">
+      <c r="A25" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8265,257 +8302,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147" t="s">
+      <c r="C28" s="150"/>
+      <c r="D28" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="183" t="s">
+      <c r="C30" s="147"/>
+      <c r="D30" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="184"/>
-      <c r="G32" s="184"/>
-      <c r="H32" s="184"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="144"/>
-      <c r="D33" s="183" t="s">
+      <c r="C33" s="147"/>
+      <c r="D33" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="184"/>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="184"/>
-      <c r="G34" s="184"/>
-      <c r="H34" s="184"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="184"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="183" t="s">
+      <c r="C36" s="147"/>
+      <c r="D36" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="184"/>
-      <c r="F36" s="184"/>
-      <c r="G36" s="184"/>
-      <c r="H36" s="184"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="184"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="183" t="s">
+      <c r="C39" s="147"/>
+      <c r="D39" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="184"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149"/>
+      <c r="I44" s="149"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="149"/>
-      <c r="D47" s="148" t="s">
+      <c r="C47" s="152"/>
+      <c r="D47" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="153"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="156"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="150"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="156"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="159"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="162" t="s">
+      <c r="B49" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="166" t="s">
+      <c r="C49" s="166"/>
+      <c r="D49" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="168"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="171"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="164"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="171"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="174"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="172" t="s">
+      <c r="C51" s="166"/>
+      <c r="D51" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="174"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="177"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="181"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
+      <c r="H52" s="180"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="164"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="179"/>
-      <c r="H53" s="180"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="181"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="182"/>
+      <c r="H53" s="183"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="161"/>
-      <c r="D54" s="157" t="s">
+      <c r="C54" s="164"/>
+      <c r="D54" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="159"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="162"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -8553,87 +8590,87 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147" t="s">
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
+      <c r="G61" s="150"/>
+      <c r="H61" s="150"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="147"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="147"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="150"/>
+      <c r="H62" s="150"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="144" t="s">
+      <c r="B63" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144" t="s">
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="144" t="s">
+      <c r="B65" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144" t="s">
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="147"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="147"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="145" t="s">
+      <c r="A73" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="148"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="146"/>
-      <c r="B74" s="146"/>
-      <c r="C74" s="146"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="149"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="146"/>
-      <c r="B75" s="146"/>
-      <c r="C75" s="146"/>
+      <c r="A75" s="149"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -8791,39 +8828,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="193" t="s">
+      <c r="D13" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="193"/>
+      <c r="E13" s="196"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G13" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="195" t="s">
+      <c r="D14" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="G14" s="196" t="s">
+      <c r="E14" s="198"/>
+      <c r="G14" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="199"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="194" t="s">
+      <c r="D15" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="197"/>
+      <c r="G15" s="197"/>
+      <c r="H15" s="197"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -8833,265 +8870,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="198"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="204"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="202" t="s">
+      <c r="C27" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="205" t="s">
+      <c r="D27" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="207"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="210"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="203"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="209"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="212"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="204"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="212"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="202" t="s">
+      <c r="C30" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D30" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="207"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="210"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="203"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="209"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="212"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="204"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="211"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="212"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="202" t="s">
+      <c r="C33" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="205" t="s">
+      <c r="D33" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="210"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="203"/>
-      <c r="D34" s="208"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="209"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="212"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="204"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="211"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="212"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="202" t="s">
+      <c r="C36" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="205" t="s">
+      <c r="D36" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="210"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="203"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="209"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="212"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="204"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="212"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="141" t="s">
+      <c r="L39" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="144"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="141" t="s">
+      <c r="L42" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="141"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="141"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
+      <c r="Q42" s="144"/>
+      <c r="R42" s="144"/>
+      <c r="S42" s="144"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9132,157 +9169,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="133" t="s">
+      <c r="C56" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="199" t="s">
+      <c r="D58" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="201"/>
+      <c r="E58" s="203"/>
+      <c r="F58" s="203"/>
+      <c r="G58" s="203"/>
+      <c r="H58" s="203"/>
+      <c r="I58" s="204"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="202" t="s">
+      <c r="C59" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="205" t="s">
+      <c r="D59" s="208" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="206"/>
-      <c r="F59" s="206"/>
-      <c r="G59" s="206"/>
-      <c r="H59" s="206"/>
-      <c r="I59" s="207"/>
+      <c r="E59" s="209"/>
+      <c r="F59" s="209"/>
+      <c r="G59" s="209"/>
+      <c r="H59" s="209"/>
+      <c r="I59" s="210"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="204"/>
-      <c r="D60" s="210"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
-      <c r="G60" s="211"/>
-      <c r="H60" s="211"/>
-      <c r="I60" s="212"/>
+      <c r="C60" s="207"/>
+      <c r="D60" s="213"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="214"/>
+      <c r="G60" s="214"/>
+      <c r="H60" s="214"/>
+      <c r="I60" s="215"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="202" t="s">
+      <c r="C61" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="205" t="s">
+      <c r="D61" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="206"/>
-      <c r="F61" s="206"/>
-      <c r="G61" s="206"/>
-      <c r="H61" s="206"/>
-      <c r="I61" s="207"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
+      <c r="H61" s="209"/>
+      <c r="I61" s="210"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="204"/>
-      <c r="D62" s="210"/>
-      <c r="E62" s="211"/>
-      <c r="F62" s="211"/>
-      <c r="G62" s="211"/>
-      <c r="H62" s="211"/>
-      <c r="I62" s="212"/>
+      <c r="C62" s="207"/>
+      <c r="D62" s="213"/>
+      <c r="E62" s="214"/>
+      <c r="F62" s="214"/>
+      <c r="G62" s="214"/>
+      <c r="H62" s="214"/>
+      <c r="I62" s="215"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="202" t="s">
+      <c r="C63" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="205" t="s">
+      <c r="D63" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="206"/>
-      <c r="F63" s="206"/>
-      <c r="G63" s="206"/>
-      <c r="H63" s="206"/>
-      <c r="I63" s="207"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="209"/>
+      <c r="I63" s="210"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="204"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="211"/>
-      <c r="G64" s="211"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="212"/>
+      <c r="C64" s="207"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
+      <c r="I64" s="215"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="202" t="s">
+      <c r="C65" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="205" t="s">
+      <c r="D65" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="206"/>
-      <c r="F65" s="206"/>
-      <c r="G65" s="206"/>
-      <c r="H65" s="206"/>
-      <c r="I65" s="207"/>
+      <c r="E65" s="209"/>
+      <c r="F65" s="209"/>
+      <c r="G65" s="209"/>
+      <c r="H65" s="209"/>
+      <c r="I65" s="210"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="203"/>
-      <c r="D66" s="208"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="209"/>
+      <c r="C66" s="206"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="212"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="204"/>
-      <c r="D67" s="210"/>
-      <c r="E67" s="211"/>
-      <c r="F67" s="211"/>
-      <c r="G67" s="211"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="212"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="213"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="214"/>
+      <c r="G67" s="214"/>
+      <c r="H67" s="214"/>
+      <c r="I67" s="215"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="202" t="s">
+      <c r="C68" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="205" t="s">
+      <c r="D68" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="206"/>
-      <c r="F68" s="206"/>
-      <c r="G68" s="206"/>
-      <c r="H68" s="206"/>
-      <c r="I68" s="207"/>
+      <c r="E68" s="209"/>
+      <c r="F68" s="209"/>
+      <c r="G68" s="209"/>
+      <c r="H68" s="209"/>
+      <c r="I68" s="210"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="203"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="209"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+      <c r="I69" s="212"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="204"/>
-      <c r="D70" s="210"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="212"/>
+      <c r="C70" s="207"/>
+      <c r="D70" s="213"/>
+      <c r="E70" s="214"/>
+      <c r="F70" s="214"/>
+      <c r="G70" s="214"/>
+      <c r="H70" s="214"/>
+      <c r="I70" s="215"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9293,53 +9330,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="214" t="s">
+      <c r="D74" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="215"/>
-      <c r="F74" s="215"/>
-      <c r="G74" s="215"/>
-      <c r="H74" s="215"/>
-      <c r="I74" s="216"/>
+      <c r="E74" s="218"/>
+      <c r="F74" s="218"/>
+      <c r="G74" s="218"/>
+      <c r="H74" s="218"/>
+      <c r="I74" s="219"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="217" t="s">
+      <c r="D75" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
-      <c r="I75" s="219"/>
+      <c r="E75" s="221"/>
+      <c r="F75" s="221"/>
+      <c r="G75" s="221"/>
+      <c r="H75" s="221"/>
+      <c r="I75" s="222"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="217" t="s">
+      <c r="D76" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="218"/>
-      <c r="I76" s="219"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="221"/>
+      <c r="G76" s="221"/>
+      <c r="H76" s="221"/>
+      <c r="I76" s="222"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="217" t="s">
+      <c r="D77" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="218"/>
-      <c r="F77" s="218"/>
-      <c r="G77" s="218"/>
-      <c r="H77" s="218"/>
-      <c r="I77" s="219"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="221"/>
+      <c r="G77" s="221"/>
+      <c r="H77" s="221"/>
+      <c r="I77" s="222"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9358,23 +9395,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="193" t="s">
+      <c r="C91" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="193"/>
+      <c r="D91" s="196"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="220">
+      <c r="G91" s="223">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="223"/>
+      <c r="I91" s="223"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="213"/>
-      <c r="H92" s="213"/>
+      <c r="G92" s="216"/>
+      <c r="H92" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -9542,40 +9579,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="193" t="s">
+      <c r="C13" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="196"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="193" t="s">
+      <c r="F13" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="195" t="s">
+      <c r="C14" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="F14" s="195" t="s">
+      <c r="D14" s="198"/>
+      <c r="F14" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -9584,232 +9621,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="201" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="198"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="221" t="s">
+      <c r="D26" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="223" t="s">
+      <c r="D27" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="222"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="226"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="222" t="s">
+      <c r="C30" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="223" t="s">
+      <c r="D30" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="222"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="222"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="222" t="s">
+      <c r="C33" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="223" t="s">
+      <c r="D33" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="226"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="222"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="222"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="222" t="s">
+      <c r="C36" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="223" t="s">
+      <c r="D36" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="222"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="222"/>
-      <c r="D38" s="223"/>
-      <c r="E38" s="223"/>
-      <c r="F38" s="223"/>
-      <c r="G38" s="223"/>
-      <c r="H38" s="223"/>
-      <c r="I38" s="223"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9850,157 +9887,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="133" t="s">
+      <c r="C56" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="221" t="s">
+      <c r="D58" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="221"/>
-      <c r="F58" s="221"/>
-      <c r="G58" s="221"/>
-      <c r="H58" s="221"/>
-      <c r="I58" s="221"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="224"/>
+      <c r="G58" s="224"/>
+      <c r="H58" s="224"/>
+      <c r="I58" s="224"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="222" t="s">
+      <c r="C59" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="223" t="s">
+      <c r="D59" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="223"/>
-      <c r="F59" s="223"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="223"/>
-      <c r="I59" s="223"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="222"/>
-      <c r="D60" s="223"/>
-      <c r="E60" s="223"/>
-      <c r="F60" s="223"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="223"/>
-      <c r="I60" s="223"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="226"/>
+      <c r="F60" s="226"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="226"/>
+      <c r="I60" s="226"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="222" t="s">
+      <c r="C61" s="225" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="223" t="s">
+      <c r="D61" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="223"/>
-      <c r="F61" s="223"/>
-      <c r="G61" s="223"/>
-      <c r="H61" s="223"/>
-      <c r="I61" s="223"/>
+      <c r="E61" s="226"/>
+      <c r="F61" s="226"/>
+      <c r="G61" s="226"/>
+      <c r="H61" s="226"/>
+      <c r="I61" s="226"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="222"/>
-      <c r="D62" s="223"/>
-      <c r="E62" s="223"/>
-      <c r="F62" s="223"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="223"/>
-      <c r="I62" s="223"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="226"/>
+      <c r="E62" s="226"/>
+      <c r="F62" s="226"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="226"/>
+      <c r="I62" s="226"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="222" t="s">
+      <c r="C63" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="223" t="s">
+      <c r="D63" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="223"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="223"/>
-      <c r="I63" s="223"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="226"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="222"/>
-      <c r="D64" s="223"/>
-      <c r="E64" s="223"/>
-      <c r="F64" s="223"/>
-      <c r="G64" s="223"/>
-      <c r="H64" s="223"/>
-      <c r="I64" s="223"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="226"/>
+      <c r="E64" s="226"/>
+      <c r="F64" s="226"/>
+      <c r="G64" s="226"/>
+      <c r="H64" s="226"/>
+      <c r="I64" s="226"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="222" t="s">
+      <c r="C65" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="223" t="s">
+      <c r="D65" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="223"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="223"/>
+      <c r="E65" s="226"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="226"/>
+      <c r="H65" s="226"/>
+      <c r="I65" s="226"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="222"/>
-      <c r="D66" s="223"/>
-      <c r="E66" s="223"/>
-      <c r="F66" s="223"/>
-      <c r="G66" s="223"/>
-      <c r="H66" s="223"/>
-      <c r="I66" s="223"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="226"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="226"/>
+      <c r="I66" s="226"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="222"/>
-      <c r="D67" s="223"/>
-      <c r="E67" s="223"/>
-      <c r="F67" s="223"/>
-      <c r="G67" s="223"/>
-      <c r="H67" s="223"/>
-      <c r="I67" s="223"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="226"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="226"/>
+      <c r="I67" s="226"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="222" t="s">
+      <c r="C68" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="223" t="s">
+      <c r="D68" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="223"/>
-      <c r="F68" s="223"/>
-      <c r="G68" s="223"/>
-      <c r="H68" s="223"/>
-      <c r="I68" s="223"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="226"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="226"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="222"/>
-      <c r="D69" s="223"/>
-      <c r="E69" s="223"/>
-      <c r="F69" s="223"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="223"/>
-      <c r="I69" s="223"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="226"/>
+      <c r="F69" s="226"/>
+      <c r="G69" s="226"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="226"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="222"/>
-      <c r="D70" s="223"/>
-      <c r="E70" s="223"/>
-      <c r="F70" s="223"/>
-      <c r="G70" s="223"/>
-      <c r="H70" s="223"/>
-      <c r="I70" s="223"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="226"/>
+      <c r="E70" s="226"/>
+      <c r="F70" s="226"/>
+      <c r="G70" s="226"/>
+      <c r="H70" s="226"/>
+      <c r="I70" s="226"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10011,53 +10048,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="225" t="s">
+      <c r="D74" s="228" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="225"/>
-      <c r="F74" s="225"/>
-      <c r="G74" s="225"/>
-      <c r="H74" s="225"/>
-      <c r="I74" s="225"/>
+      <c r="E74" s="228"/>
+      <c r="F74" s="228"/>
+      <c r="G74" s="228"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="228"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="224" t="s">
+      <c r="D75" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="224"/>
-      <c r="F75" s="224"/>
-      <c r="G75" s="224"/>
-      <c r="H75" s="224"/>
-      <c r="I75" s="224"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="227"/>
+      <c r="G75" s="227"/>
+      <c r="H75" s="227"/>
+      <c r="I75" s="227"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="224" t="s">
+      <c r="D76" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="224"/>
-      <c r="F76" s="224"/>
-      <c r="G76" s="224"/>
-      <c r="H76" s="224"/>
-      <c r="I76" s="224"/>
+      <c r="E76" s="227"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="227"/>
+      <c r="H76" s="227"/>
+      <c r="I76" s="227"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="224" t="s">
+      <c r="D77" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="224"/>
-      <c r="F77" s="224"/>
-      <c r="G77" s="224"/>
-      <c r="H77" s="224"/>
-      <c r="I77" s="224"/>
+      <c r="E77" s="227"/>
+      <c r="F77" s="227"/>
+      <c r="G77" s="227"/>
+      <c r="H77" s="227"/>
+      <c r="I77" s="227"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10074,23 +10111,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="193" t="s">
+      <c r="C91" s="196" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="193"/>
+      <c r="D91" s="196"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="220">
+      <c r="G91" s="223">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="223"/>
+      <c r="I91" s="223"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="226"/>
-      <c r="H92" s="226"/>
+      <c r="G92" s="229"/>
+      <c r="H92" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -10165,7 +10202,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,28 +10239,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10250,15 +10287,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10283,15 +10320,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10332,16 +10369,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10431,48 +10468,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="146" t="s">
+      <c r="B46" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10485,16 +10522,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="129" t="s">
+      <c r="B59" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -10508,16 +10545,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10540,218 +10577,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="146" t="s">
+      <c r="B68" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="234"/>
-      <c r="C71" s="235"/>
-      <c r="D71" s="238" t="s">
+      <c r="B71" s="237"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="239"/>
-      <c r="F71" s="238" t="s">
+      <c r="E71" s="242"/>
+      <c r="F71" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="239"/>
-      <c r="H71" s="238" t="s">
+      <c r="G71" s="242"/>
+      <c r="H71" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="239"/>
+      <c r="I71" s="242"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="236"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="240"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="240"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="240"/>
-      <c r="I72" s="241"/>
+      <c r="B72" s="239"/>
+      <c r="C72" s="240"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="244"/>
+      <c r="F72" s="243"/>
+      <c r="G72" s="244"/>
+      <c r="H72" s="243"/>
+      <c r="I72" s="244"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="230" t="s">
+      <c r="B73" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="231"/>
-      <c r="D73" s="227"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="228"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="232"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="232"/>
+      <c r="I73" s="231"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="146" t="s">
+      <c r="B75" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="149"/>
+      <c r="F75" s="149"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="146"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="232" t="s">
+      <c r="E78" s="235" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="233"/>
-      <c r="G78" s="233"/>
-      <c r="H78" s="233"/>
+      <c r="F78" s="236"/>
+      <c r="G78" s="236"/>
+      <c r="H78" s="236"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="233"/>
-      <c r="F79" s="233"/>
-      <c r="G79" s="233"/>
-      <c r="H79" s="233"/>
+      <c r="E79" s="236"/>
+      <c r="F79" s="236"/>
+      <c r="G79" s="236"/>
+      <c r="H79" s="236"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="133"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="133"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="133"/>
-      <c r="G82" s="133"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="133"/>
+      <c r="A82" s="136"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="133"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="133"/>
+      <c r="A83" s="136"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="136"/>
+      <c r="I83" s="136"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="133"/>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="133"/>
-      <c r="G84" s="133"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="133"/>
+      <c r="A84" s="136"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="136"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="133"/>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="133"/>
-      <c r="G85" s="133"/>
-      <c r="H85" s="133"/>
-      <c r="I85" s="133"/>
+      <c r="A85" s="136"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="136"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="133"/>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="133"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="133"/>
-      <c r="H86" s="133"/>
-      <c r="I86" s="133"/>
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="136"/>
+      <c r="I86" s="136"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="133"/>
-      <c r="B87" s="133"/>
-      <c r="C87" s="133"/>
-      <c r="D87" s="133"/>
-      <c r="E87" s="133"/>
-      <c r="F87" s="133"/>
-      <c r="G87" s="133"/>
-      <c r="H87" s="133"/>
-      <c r="I87" s="133"/>
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="136"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="133"/>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="133"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="133"/>
-      <c r="G88" s="133"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="133"/>
+      <c r="A88" s="136"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="136"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="133"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="133"/>
-      <c r="G89" s="133"/>
-      <c r="H89" s="133"/>
-      <c r="I89" s="133"/>
+      <c r="A89" s="136"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="136"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="133"/>
-      <c r="E90" s="133"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="133"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="133"/>
+      <c r="A90" s="136"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="136"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10799,7 +10836,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,28 +10873,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10884,15 +10921,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10917,15 +10954,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10966,16 +11003,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11065,48 +11102,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="146" t="s">
+      <c r="B46" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11119,16 +11156,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="129" t="s">
+      <c r="B59" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="126"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11142,16 +11179,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11174,218 +11211,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="146" t="s">
+      <c r="B68" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="234"/>
-      <c r="C71" s="235"/>
-      <c r="D71" s="238" t="s">
+      <c r="B71" s="237"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="239"/>
-      <c r="F71" s="238" t="s">
+      <c r="E71" s="242"/>
+      <c r="F71" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="239"/>
-      <c r="H71" s="238" t="s">
+      <c r="G71" s="242"/>
+      <c r="H71" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="239"/>
+      <c r="I71" s="242"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="236"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="240"/>
-      <c r="E72" s="241"/>
-      <c r="F72" s="240"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="240"/>
-      <c r="I72" s="241"/>
+      <c r="B72" s="239"/>
+      <c r="C72" s="240"/>
+      <c r="D72" s="243"/>
+      <c r="E72" s="244"/>
+      <c r="F72" s="243"/>
+      <c r="G72" s="244"/>
+      <c r="H72" s="243"/>
+      <c r="I72" s="244"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="230" t="s">
+      <c r="B73" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="231"/>
-      <c r="D73" s="227"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="228"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="230"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="232"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="232"/>
+      <c r="I73" s="231"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="146" t="s">
+      <c r="B75" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="149"/>
+      <c r="F75" s="149"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="149"/>
+      <c r="I75" s="149"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="146"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="149"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="149"/>
+      <c r="I76" s="149"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="232" t="s">
+      <c r="E78" s="235" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="233"/>
-      <c r="G78" s="233"/>
-      <c r="H78" s="233"/>
+      <c r="F78" s="236"/>
+      <c r="G78" s="236"/>
+      <c r="H78" s="236"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="233"/>
-      <c r="F79" s="233"/>
-      <c r="G79" s="233"/>
-      <c r="H79" s="233"/>
+      <c r="E79" s="236"/>
+      <c r="F79" s="236"/>
+      <c r="G79" s="236"/>
+      <c r="H79" s="236"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="133"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="136"/>
+      <c r="H81" s="136"/>
+      <c r="I81" s="136"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="133"/>
-      <c r="B82" s="133"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="133"/>
-      <c r="E82" s="133"/>
-      <c r="F82" s="133"/>
-      <c r="G82" s="133"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="133"/>
+      <c r="A82" s="136"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
+      <c r="D82" s="136"/>
+      <c r="E82" s="136"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="136"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="136"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="133"/>
-      <c r="B83" s="133"/>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="133"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="133"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="133"/>
+      <c r="A83" s="136"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
+      <c r="D83" s="136"/>
+      <c r="E83" s="136"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="136"/>
+      <c r="H83" s="136"/>
+      <c r="I83" s="136"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="133"/>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="133"/>
-      <c r="G84" s="133"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="133"/>
+      <c r="A84" s="136"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="136"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="136"/>
+      <c r="I84" s="136"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="133"/>
-      <c r="B85" s="133"/>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
-      <c r="F85" s="133"/>
-      <c r="G85" s="133"/>
-      <c r="H85" s="133"/>
-      <c r="I85" s="133"/>
+      <c r="A85" s="136"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="136"/>
+      <c r="D85" s="136"/>
+      <c r="E85" s="136"/>
+      <c r="F85" s="136"/>
+      <c r="G85" s="136"/>
+      <c r="H85" s="136"/>
+      <c r="I85" s="136"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="133"/>
-      <c r="B86" s="133"/>
-      <c r="C86" s="133"/>
-      <c r="D86" s="133"/>
-      <c r="E86" s="133"/>
-      <c r="F86" s="133"/>
-      <c r="G86" s="133"/>
-      <c r="H86" s="133"/>
-      <c r="I86" s="133"/>
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="136"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="136"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="136"/>
+      <c r="H86" s="136"/>
+      <c r="I86" s="136"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="133"/>
-      <c r="B87" s="133"/>
-      <c r="C87" s="133"/>
-      <c r="D87" s="133"/>
-      <c r="E87" s="133"/>
-      <c r="F87" s="133"/>
-      <c r="G87" s="133"/>
-      <c r="H87" s="133"/>
-      <c r="I87" s="133"/>
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="136"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="136"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="136"/>
+      <c r="H87" s="136"/>
+      <c r="I87" s="136"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="133"/>
-      <c r="B88" s="133"/>
-      <c r="C88" s="133"/>
-      <c r="D88" s="133"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="133"/>
-      <c r="G88" s="133"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="133"/>
+      <c r="A88" s="136"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="136"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="136"/>
+      <c r="H88" s="136"/>
+      <c r="I88" s="136"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="133"/>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="133"/>
-      <c r="G89" s="133"/>
-      <c r="H89" s="133"/>
-      <c r="I89" s="133"/>
+      <c r="A89" s="136"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="136"/>
+      <c r="H89" s="136"/>
+      <c r="I89" s="136"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="133"/>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="133"/>
-      <c r="E90" s="133"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="133"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="133"/>
+      <c r="A90" s="136"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="136"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="136"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="20">
